--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>228253.5377226435</v>
+        <v>222587.0890925806</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8277469.467840062</v>
+        <v>8277469.467840065</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="D2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>374.4268935289278</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>376.6861762689736</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>13.94516649828807</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>232.1598556098238</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.791280683032079</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>85.22256772912013</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,22 +1056,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>159.1000412385906</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>41.81996718928885</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.644785797102611</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>306.0087361885582</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>58.53613649087012</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>157.044012223894</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>60.56984601203017</v>
+        <v>424.2958575201041</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>58.31056327198372</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>83.80937540686895</v>
+        <v>83.80937540686897</v>
       </c>
       <c r="H12" t="n">
         <v>34.34661464441015</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>49.41258657788105</v>
+        <v>49.41258657788106</v>
       </c>
       <c r="T12" t="n">
         <v>125.9672410405524</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>108.6814417413733</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>159.6158662242028</v>
+        <v>240.8348570146258</v>
       </c>
       <c r="U13" t="n">
         <v>275.615660591221</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201042</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.0346945768795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>47.56278694884492</v>
+        <v>23.52593200066137</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>83.80937540686895</v>
+        <v>83.80937540686897</v>
       </c>
       <c r="H15" t="n">
         <v>34.34661464441015</v>
@@ -1767,25 +1767,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.3301761740106</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.122498409159</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.57375468953282</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>147.1022126635735</v>
       </c>
       <c r="T16" t="n">
-        <v>159.6158662242024</v>
+        <v>40.37710093518231</v>
       </c>
       <c r="U16" t="n">
-        <v>275.615660591221</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>279.3647797235326</v>
+        <v>162.3797136657183</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>46.1445222474014</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.8220536723258</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5013394860404</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>16.5351712939726</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.2135071210055</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>132.0852044651677</v>
@@ -2055,7 +2055,7 @@
         <v>145.0689892580201</v>
       </c>
       <c r="T19" t="n">
-        <v>112.7223642731262</v>
+        <v>240.3363619699674</v>
       </c>
       <c r="U19" t="n">
         <v>275.6092968246934</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>142.9464261001843</v>
+        <v>43.04247503411444</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.7746009365573</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.8220536723258</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5013394860404</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>43.8494794348759</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>43.84947943487458</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.7746009365573</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>269.7580996716051</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>46.1445222474014</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>122.8218817147631</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>374.3183202428165</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>200.0020336215814</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.7746009365573</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.8220536723258</v>
       </c>
       <c r="U26" t="n">
-        <v>236.6511354914863</v>
+        <v>256.5013394860404</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2620,7 +2620,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2733,7 +2733,7 @@
         <v>132.0852044651677</v>
       </c>
       <c r="I28" t="n">
-        <v>66.06519807734102</v>
+        <v>66.06519807734153</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>200.0020336215814</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.7746009365573</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>269.7580996716051</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>256.5013394860404</v>
       </c>
       <c r="V29" t="n">
-        <v>304.1126535542167</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>153.85751137418</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.7746009365573</v>
       </c>
       <c r="H32" t="n">
-        <v>14.56988719498521</v>
+        <v>269.7580996716051</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.14452224740141</v>
+        <v>46.1445222474014</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.8220536723258</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.5013394860404</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3274,16 +3274,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.7746009365573</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>193.4694894539107</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.1445222474014</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.8220536723258</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>155.4786902273437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>46.82770666295088</v>
+        <v>46.82770666295087</v>
       </c>
       <c r="T36" t="n">
         <v>125.4063190472062</v>
@@ -3444,7 +3444,7 @@
         <v>132.0852044651677</v>
       </c>
       <c r="I37" t="n">
-        <v>66.06519807734153</v>
+        <v>66.06519807734152</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>135.0475020722523</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.7746009365573</v>
+        <v>298.5832988753382</v>
       </c>
       <c r="H38" t="n">
-        <v>269.7580996716051</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>256.5013394860404</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3714,7 +3714,7 @@
         <v>145.0689892580201</v>
       </c>
       <c r="T40" t="n">
-        <v>240.3363619699674</v>
+        <v>240.3363619699672</v>
       </c>
       <c r="U40" t="n">
         <v>275.6092968246934</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.8220536723258</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>268.5661615905839</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>99.56022739582346</v>
       </c>
     </row>
     <row r="42">
@@ -3900,22 +3900,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>132.0852044651677</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>123.0492541150571</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.3363619699674</v>
+        <v>170.1114722563403</v>
       </c>
       <c r="U43" t="n">
         <v>275.6092968246934</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.7746009365573</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>147.8449105981297</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5013394860404</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>263.9361350444196</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.2135071210055</v>
+        <v>109.7394511936029</v>
       </c>
       <c r="H46" t="n">
         <v>132.0852044651677</v>
       </c>
       <c r="I46" t="n">
-        <v>66.06519807734153</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>145.0689892580201</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>121.6494370586415</v>
+        <v>240.3363619699674</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6092968246934</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1697.183430080417</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.601755817686</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D2" t="n">
-        <v>840.020081554954</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E2" t="n">
-        <v>840.020081554954</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
-        <v>412.1526519641617</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4333,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4372,10 +4372,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>1316.69234294004</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>1316.69234294004</v>
       </c>
     </row>
     <row r="3">
@@ -4388,46 +4388,46 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386.4693996828083</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="C4" t="n">
-        <v>213.9076881660332</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D4" t="n">
-        <v>48.02969536755589</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E4" t="n">
-        <v>48.02969536755589</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4488,25 +4488,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>453.9965675465116</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>874.0494664914149</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1641.225609687538</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4518,22 +4518,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1462.67852542403</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1175.72301729446</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>903.6966128807517</v>
       </c>
       <c r="X4" t="n">
-        <v>613.8890703687</v>
+        <v>903.6966128807517</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.4693996828083</v>
+        <v>903.6966128807517</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>435.3414999783445</v>
+        <v>866.0284050065428</v>
       </c>
       <c r="C5" t="n">
-        <v>435.3414999783445</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="D5" t="n">
-        <v>435.3414999783445</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="E5" t="n">
-        <v>435.3414999783445</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F5" t="n">
         <v>435.3414999783445</v>
@@ -4570,19 +4570,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4603,16 +4603,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X5" t="n">
-        <v>843.6276236786911</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="Y5" t="n">
-        <v>435.3414999783445</v>
+        <v>1292.327975491451</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>194.6507809638211</v>
+        <v>754.1203852620563</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>754.1203852620563</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>588.242392463579</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>418.4843887143163</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>241.7773346760725</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>76.18605970190012</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4725,19 +4725,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4755,22 +4755,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="X7" t="n">
-        <v>613.8890703687</v>
+        <v>1173.358674666935</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.4693996828083</v>
+        <v>945.9390039810435</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>462.2278875652606</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C8" t="n">
-        <v>462.2278875652606</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D8" t="n">
-        <v>462.2278875652606</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E8" t="n">
-        <v>462.2278875652606</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K8" t="n">
         <v>453.9965675465116</v>
-      </c>
-      <c r="K8" t="n">
-        <v>687.9235674375537</v>
       </c>
       <c r="L8" t="n">
         <v>687.9235674375537</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>714.6817019292769</v>
+        <v>262.8290829477096</v>
       </c>
       <c r="C10" t="n">
-        <v>542.1199904125018</v>
+        <v>262.8290829477096</v>
       </c>
       <c r="D10" t="n">
-        <v>376.2419976140245</v>
+        <v>262.8290829477096</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>93.07107919844685</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G10" t="n">
         <v>33.94366860160834</v>
@@ -4962,25 +4962,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L10" t="n">
-        <v>726.9120049407049</v>
+        <v>269.215608100497</v>
       </c>
       <c r="M10" t="n">
-        <v>726.9120049407049</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4992,22 +4992,22 @@
         <v>1537.942061378414</v>
       </c>
       <c r="T10" t="n">
-        <v>1537.942061378414</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U10" t="n">
-        <v>1537.942061378414</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V10" t="n">
-        <v>1379.311746000743</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.311746000743</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X10" t="n">
-        <v>1133.919991334156</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="Y10" t="n">
-        <v>906.5003206482641</v>
+        <v>454.6477016666967</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.12533124002266</v>
+        <v>521.4249017249293</v>
       </c>
       <c r="C11" t="n">
-        <v>33.94366860160834</v>
+        <v>92.84322746219794</v>
       </c>
       <c r="D11" t="n">
-        <v>33.94366860160834</v>
+        <v>92.84322746219794</v>
       </c>
       <c r="E11" t="n">
-        <v>33.94366860160834</v>
+        <v>92.84322746219794</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>92.84322746219794</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>92.84322746219794</v>
       </c>
       <c r="H11" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160832</v>
       </c>
       <c r="I11" t="n">
-        <v>85.02847154687558</v>
+        <v>85.02847154687582</v>
       </c>
       <c r="J11" t="n">
-        <v>198.3915302050083</v>
+        <v>198.3915302050085</v>
       </c>
       <c r="K11" t="n">
-        <v>368.2933687921386</v>
+        <v>368.2933687921387</v>
       </c>
       <c r="L11" t="n">
         <v>579.0716233077371</v>
       </c>
       <c r="M11" t="n">
-        <v>813.603044078056</v>
+        <v>813.6030440780557</v>
       </c>
       <c r="N11" t="n">
-        <v>1051.92942843149</v>
+        <v>1051.929428431489</v>
       </c>
       <c r="O11" t="n">
         <v>1276.974275035834</v>
       </c>
       <c r="P11" t="n">
-        <v>1469.044845016103</v>
+        <v>1469.044845016102</v>
       </c>
       <c r="Q11" t="n">
-        <v>1613.28184409613</v>
+        <v>1613.281844096129</v>
       </c>
       <c r="R11" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080416</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080416</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080416</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080416</v>
       </c>
       <c r="V11" t="n">
-        <v>1334.566480014244</v>
+        <v>1334.566480014243</v>
       </c>
       <c r="W11" t="n">
-        <v>929.7110254252771</v>
+        <v>929.7110254252759</v>
       </c>
       <c r="X11" t="n">
-        <v>929.7110254252771</v>
+        <v>929.7110254252759</v>
       </c>
       <c r="Y11" t="n">
-        <v>521.4249017249305</v>
+        <v>521.4249017249293</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>153.2931535018903</v>
       </c>
       <c r="G12" t="n">
-        <v>68.63721874747718</v>
+        <v>68.63721874747716</v>
       </c>
       <c r="H12" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160832</v>
       </c>
       <c r="I12" t="n">
-        <v>84.61243668840937</v>
+        <v>84.61243668840935</v>
       </c>
       <c r="J12" t="n">
-        <v>152.130697810494</v>
+        <v>476.6890227767062</v>
       </c>
       <c r="K12" t="n">
-        <v>267.5301602185432</v>
+        <v>592.0884851847554</v>
       </c>
       <c r="L12" t="n">
-        <v>422.6989786043561</v>
+        <v>747.2573035705683</v>
       </c>
       <c r="M12" t="n">
-        <v>603.7736708202619</v>
+        <v>928.3319957864738</v>
       </c>
       <c r="N12" t="n">
-        <v>789.64087133456</v>
+        <v>1114.199196300772</v>
       </c>
       <c r="O12" t="n">
-        <v>959.6730477000826</v>
+        <v>1284.231372666294</v>
       </c>
       <c r="P12" t="n">
-        <v>1379.725946644986</v>
+        <v>1420.697184501089</v>
       </c>
       <c r="Q12" t="n">
-        <v>1511.338018604792</v>
+        <v>1511.920965741382</v>
       </c>
       <c r="R12" t="n">
         <v>1672.881462148471</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>143.7229026838036</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160832</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160832</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160832</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160832</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160832</v>
       </c>
       <c r="H13" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160832</v>
       </c>
       <c r="I13" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160832</v>
       </c>
       <c r="J13" t="n">
-        <v>162.8821409933428</v>
+        <v>76.30245582865294</v>
       </c>
       <c r="K13" t="n">
-        <v>507.2490950837828</v>
+        <v>420.6694099190929</v>
       </c>
       <c r="L13" t="n">
-        <v>782.6184676270011</v>
+        <v>782.6184676270003</v>
       </c>
       <c r="M13" t="n">
-        <v>876.5354752335243</v>
+        <v>876.5354752335234</v>
       </c>
       <c r="N13" t="n">
-        <v>968.2193463139978</v>
+        <v>968.2193463139968</v>
       </c>
       <c r="O13" t="n">
-        <v>1052.904240721364</v>
+        <v>1052.904240721363</v>
       </c>
       <c r="P13" t="n">
-        <v>1472.873691624791</v>
+        <v>1472.87369162479</v>
       </c>
       <c r="Q13" t="n">
-        <v>1691.235784882888</v>
+        <v>1691.235784882887</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080416</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080416</v>
       </c>
       <c r="T13" t="n">
-        <v>1535.955282379202</v>
+        <v>1453.91589774241</v>
       </c>
       <c r="U13" t="n">
-        <v>1257.555625216353</v>
+        <v>1175.516240579561</v>
       </c>
       <c r="V13" t="n">
-        <v>970.6001170867833</v>
+        <v>888.5607324499913</v>
       </c>
       <c r="W13" t="n">
-        <v>698.5737126730747</v>
+        <v>616.5343280362829</v>
       </c>
       <c r="X13" t="n">
-        <v>453.1819580064872</v>
+        <v>371.1425733696954</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.7622873205955</v>
+        <v>143.7229026838036</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>462.5253428643399</v>
+        <v>433.9787136287594</v>
       </c>
       <c r="C14" t="n">
-        <v>462.5253428643399</v>
+        <v>433.9787136287594</v>
       </c>
       <c r="D14" t="n">
-        <v>462.5253428643399</v>
+        <v>433.9787136287594</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>433.9787136287594</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>433.9787136287594</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160832</v>
       </c>
       <c r="H14" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160832</v>
       </c>
       <c r="I14" t="n">
-        <v>85.02847154687571</v>
+        <v>85.02847154687592</v>
       </c>
       <c r="J14" t="n">
-        <v>198.3915302050085</v>
+        <v>198.3915302050086</v>
       </c>
       <c r="K14" t="n">
         <v>368.2933687921387</v>
@@ -5287,10 +5287,10 @@
         <v>579.0716233077371</v>
       </c>
       <c r="M14" t="n">
-        <v>813.603044078056</v>
+        <v>813.6030440780557</v>
       </c>
       <c r="N14" t="n">
-        <v>1051.92942843149</v>
+        <v>1051.929428431489</v>
       </c>
       <c r="O14" t="n">
         <v>1276.974275035834</v>
@@ -5302,28 +5302,28 @@
         <v>1613.281844096129</v>
       </c>
       <c r="R14" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080416</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080416</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080416</v>
       </c>
       <c r="U14" t="n">
-        <v>1649.140210940169</v>
+        <v>1673.41986240298</v>
       </c>
       <c r="V14" t="n">
-        <v>1286.523260873996</v>
+        <v>1673.41986240298</v>
       </c>
       <c r="W14" t="n">
-        <v>881.6678062850292</v>
+        <v>1268.564407814014</v>
       </c>
       <c r="X14" t="n">
-        <v>462.5253428643399</v>
+        <v>1268.564407814014</v>
       </c>
       <c r="Y14" t="n">
-        <v>462.5253428643399</v>
+        <v>860.2782841136672</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>236.6769918857286</v>
       </c>
       <c r="F15" t="n">
-        <v>153.2931535018902</v>
+        <v>153.2931535018903</v>
       </c>
       <c r="G15" t="n">
         <v>68.63721874747716</v>
       </c>
       <c r="H15" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160832</v>
       </c>
       <c r="I15" t="n">
-        <v>84.61243668840937</v>
+        <v>84.61243668840933</v>
       </c>
       <c r="J15" t="n">
-        <v>152.130697810494</v>
+        <v>152.1306978104938</v>
       </c>
       <c r="K15" t="n">
-        <v>267.5301602185431</v>
+        <v>267.530160218543</v>
       </c>
       <c r="L15" t="n">
-        <v>422.6989786043561</v>
+        <v>422.6989786043558</v>
       </c>
       <c r="M15" t="n">
-        <v>603.7736708202618</v>
+        <v>603.7736708202614</v>
       </c>
       <c r="N15" t="n">
-        <v>789.6408713345598</v>
+        <v>789.6408713345592</v>
       </c>
       <c r="O15" t="n">
-        <v>959.6730477000824</v>
+        <v>959.6730477000816</v>
       </c>
       <c r="P15" t="n">
-        <v>1096.138859534877</v>
+        <v>1096.138859534876</v>
       </c>
       <c r="Q15" t="n">
-        <v>1516.19175847978</v>
+        <v>1511.338018604792</v>
       </c>
       <c r="R15" t="n">
         <v>1672.881462148471</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>1088.57209663639</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>916.0103851196149</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>750.1323923211376</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>580.3743885718748</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>403.667334533631</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>238.6873586002869</v>
       </c>
       <c r="H16" t="n">
-        <v>33.94366860160834</v>
+        <v>104.2201884900253</v>
       </c>
       <c r="I16" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160832</v>
       </c>
       <c r="J16" t="n">
-        <v>149.7617991849113</v>
+        <v>162.8821409933428</v>
       </c>
       <c r="K16" t="n">
-        <v>219.3702987042157</v>
+        <v>507.2490950837827</v>
       </c>
       <c r="L16" t="n">
-        <v>308.4452127213287</v>
+        <v>782.6184676270003</v>
       </c>
       <c r="M16" t="n">
-        <v>728.4981116662319</v>
+        <v>876.5354752335234</v>
       </c>
       <c r="N16" t="n">
-        <v>1148.551010611135</v>
+        <v>968.2193463139968</v>
       </c>
       <c r="O16" t="n">
-        <v>1568.603909556038</v>
+        <v>1052.904240721363</v>
       </c>
       <c r="P16" t="n">
-        <v>1641.066466489123</v>
+        <v>1472.87369162479</v>
       </c>
       <c r="Q16" t="n">
-        <v>1691.235784882888</v>
+        <v>1691.235784882887</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080416</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1548.595336480847</v>
       </c>
       <c r="T16" t="n">
-        <v>1535.955282379202</v>
+        <v>1507.810386041269</v>
       </c>
       <c r="U16" t="n">
-        <v>1257.555625216353</v>
+        <v>1507.810386041269</v>
       </c>
       <c r="V16" t="n">
-        <v>970.6001170867833</v>
+        <v>1507.810386041269</v>
       </c>
       <c r="W16" t="n">
-        <v>698.5737126730747</v>
+        <v>1507.810386041269</v>
       </c>
       <c r="X16" t="n">
-        <v>453.1819580064872</v>
+        <v>1507.810386041269</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.7622873205955</v>
+        <v>1280.390715355377</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1441.696250000867</v>
+        <v>1327.897244584007</v>
       </c>
       <c r="C17" t="n">
-        <v>1441.696250000867</v>
+        <v>889.7547717674302</v>
       </c>
       <c r="D17" t="n">
-        <v>1159.50960381548</v>
+        <v>725.7348589737753</v>
       </c>
       <c r="E17" t="n">
-        <v>725.7348589737754</v>
+        <v>725.7348589737753</v>
       </c>
       <c r="F17" t="n">
-        <v>725.7348589737754</v>
+        <v>725.7348589737753</v>
       </c>
       <c r="G17" t="n">
-        <v>325.9625347954347</v>
+        <v>325.9625347954346</v>
       </c>
       <c r="H17" t="n">
-        <v>53.47960583421739</v>
+        <v>53.47960583421737</v>
       </c>
       <c r="I17" t="n">
         <v>114.4913962473183</v>
@@ -5524,43 +5524,43 @@
         <v>703.7772367972249</v>
       </c>
       <c r="M17" t="n">
-        <v>1365.587358995665</v>
+        <v>983.5221233145446</v>
       </c>
       <c r="N17" t="n">
-        <v>1904.332852262238</v>
+        <v>1267.793574559989</v>
       </c>
       <c r="O17" t="n">
-        <v>2172.762322683999</v>
+        <v>1570.896478402188</v>
       </c>
       <c r="P17" t="n">
-        <v>2401.860665353686</v>
+        <v>2232.706600600628</v>
       </c>
       <c r="Q17" t="n">
-        <v>2573.903979664036</v>
+        <v>2404.749914910978</v>
       </c>
       <c r="R17" t="n">
-        <v>2673.98029171087</v>
+        <v>2673.980291710868</v>
       </c>
       <c r="S17" t="n">
-        <v>2673.98029171087</v>
+        <v>2627.369663178139</v>
       </c>
       <c r="T17" t="n">
-        <v>2673.98029171087</v>
+        <v>2414.418093812154</v>
       </c>
       <c r="U17" t="n">
-        <v>2673.98029171087</v>
+        <v>2155.325831705043</v>
       </c>
       <c r="V17" t="n">
-        <v>2673.98029171087</v>
+        <v>2155.325831705043</v>
       </c>
       <c r="W17" t="n">
-        <v>2269.124837121903</v>
+        <v>2155.325831705043</v>
       </c>
       <c r="X17" t="n">
-        <v>1849.982373701213</v>
+        <v>1736.183368284353</v>
       </c>
       <c r="Y17" t="n">
-        <v>1441.696250000867</v>
+        <v>1327.897244584007</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>550.3819343640946</v>
+        <v>550.3819343640945</v>
       </c>
       <c r="C18" t="n">
-        <v>443.9254732007369</v>
+        <v>443.9254732007368</v>
       </c>
       <c r="D18" t="n">
         <v>348.8351843472901</v>
@@ -5585,34 +5585,34 @@
         <v>171.3309312904054</v>
       </c>
       <c r="G18" t="n">
-        <v>86.81556458259865</v>
+        <v>86.81556458259863</v>
       </c>
       <c r="H18" t="n">
-        <v>53.47960583421739</v>
+        <v>53.47960583421737</v>
       </c>
       <c r="I18" t="n">
-        <v>82.82812325380283</v>
+        <v>82.8281232538028</v>
       </c>
       <c r="J18" t="n">
-        <v>163.3626982519289</v>
+        <v>400.0017206047146</v>
       </c>
       <c r="K18" t="n">
-        <v>301.0091142821043</v>
+        <v>537.6481366348901</v>
       </c>
       <c r="L18" t="n">
-        <v>486.0917072574644</v>
+        <v>722.7307296102501</v>
       </c>
       <c r="M18" t="n">
-        <v>702.0743634777765</v>
+        <v>938.7133858305623</v>
       </c>
       <c r="N18" t="n">
-        <v>923.7734379317887</v>
+        <v>1160.412460284575</v>
       </c>
       <c r="O18" t="n">
-        <v>1126.584778627362</v>
+        <v>1363.223800980148</v>
       </c>
       <c r="P18" t="n">
-        <v>1289.358759699198</v>
+        <v>1525.997782051984</v>
       </c>
       <c r="Q18" t="n">
         <v>1634.807877718177</v>
@@ -5621,7 +5621,7 @@
         <v>1687.732414354056</v>
       </c>
       <c r="S18" t="n">
-        <v>1640.431700553096</v>
+        <v>1640.431700553095</v>
       </c>
       <c r="T18" t="n">
         <v>1513.758651010463</v>
@@ -5633,13 +5633,13 @@
         <v>1138.361804692563</v>
       </c>
       <c r="W18" t="n">
-        <v>953.0390504257571</v>
+        <v>953.0390504257568</v>
       </c>
       <c r="X18" t="n">
-        <v>798.171614664637</v>
+        <v>798.1716146646369</v>
       </c>
       <c r="Y18" t="n">
-        <v>671.6858354438577</v>
+        <v>671.6858354438576</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1103.398418102143</v>
+        <v>782.6767714065465</v>
       </c>
       <c r="C19" t="n">
-        <v>930.8367065853676</v>
+        <v>765.9745781803116</v>
       </c>
       <c r="D19" t="n">
-        <v>764.9587137868903</v>
+        <v>600.0965853818343</v>
       </c>
       <c r="E19" t="n">
-        <v>595.2007100376276</v>
+        <v>430.3385816325715</v>
       </c>
       <c r="F19" t="n">
-        <v>418.4936559993838</v>
+        <v>253.6315275943277</v>
       </c>
       <c r="G19" t="n">
-        <v>253.6315275943278</v>
+        <v>253.6315275943277</v>
       </c>
       <c r="H19" t="n">
         <v>120.2121291446634</v>
       </c>
       <c r="I19" t="n">
-        <v>53.47960583421739</v>
+        <v>53.47960583421737</v>
       </c>
       <c r="J19" t="n">
         <v>190.5840952529414</v>
       </c>
       <c r="K19" t="n">
-        <v>348.305325948979</v>
+        <v>548.3703238200339</v>
       </c>
       <c r="L19" t="n">
-        <v>872.7621729696692</v>
+        <v>1072.827170840724</v>
       </c>
       <c r="M19" t="n">
-        <v>1444.268568085816</v>
+        <v>1184.849698775958</v>
       </c>
       <c r="N19" t="n">
-        <v>1995.886253847056</v>
+        <v>1480.18658501238</v>
       </c>
       <c r="O19" t="n">
-        <v>2516.56613140532</v>
+        <v>2000.866462570645</v>
       </c>
       <c r="P19" t="n">
-        <v>2602.99817406903</v>
+        <v>2434.805399204696</v>
       </c>
       <c r="Q19" t="n">
-        <v>2662.839240287869</v>
+        <v>2662.839240287868</v>
       </c>
       <c r="R19" t="n">
-        <v>2673.98029171087</v>
+        <v>2673.980291710868</v>
       </c>
       <c r="S19" t="n">
-        <v>2527.445959127011</v>
+        <v>2527.445959127009</v>
       </c>
       <c r="T19" t="n">
-        <v>2413.584985113752</v>
+        <v>2284.681957137143</v>
       </c>
       <c r="U19" t="n">
-        <v>2135.1917559979</v>
+        <v>2006.288728021291</v>
       </c>
       <c r="V19" t="n">
-        <v>1848.23624786833</v>
+        <v>1719.333219891721</v>
       </c>
       <c r="W19" t="n">
-        <v>1576.209843454622</v>
+        <v>1447.306815478013</v>
       </c>
       <c r="X19" t="n">
-        <v>1330.818088788034</v>
+        <v>1201.915060811426</v>
       </c>
       <c r="Y19" t="n">
-        <v>1103.398418102143</v>
+        <v>974.4953901255337</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1071.922192870475</v>
+        <v>1370.781435163897</v>
       </c>
       <c r="C20" t="n">
-        <v>633.7797200538985</v>
+        <v>932.6389623473201</v>
       </c>
       <c r="D20" t="n">
-        <v>197.869935228343</v>
+        <v>496.7291775217646</v>
       </c>
       <c r="E20" t="n">
-        <v>197.869935228343</v>
+        <v>496.7291775217646</v>
       </c>
       <c r="F20" t="n">
-        <v>53.47960583421739</v>
+        <v>453.2519300125581</v>
       </c>
       <c r="G20" t="n">
-        <v>53.47960583421739</v>
+        <v>53.47960583421737</v>
       </c>
       <c r="H20" t="n">
-        <v>53.47960583421739</v>
+        <v>53.47960583421737</v>
       </c>
       <c r="I20" t="n">
         <v>114.4913962473183</v>
       </c>
       <c r="J20" t="n">
-        <v>684.9635137376064</v>
+        <v>249.7088262846884</v>
       </c>
       <c r="K20" t="n">
-        <v>887.6193898608614</v>
+        <v>452.3647024079434</v>
       </c>
       <c r="L20" t="n">
-        <v>1139.031924250143</v>
+        <v>703.7772367972249</v>
       </c>
       <c r="M20" t="n">
-        <v>1418.776810767462</v>
+        <v>983.5221233145446</v>
       </c>
       <c r="N20" t="n">
-        <v>1703.048262012907</v>
+        <v>1267.793574559989</v>
       </c>
       <c r="O20" t="n">
-        <v>1971.477732434668</v>
+        <v>1929.603696758429</v>
       </c>
       <c r="P20" t="n">
-        <v>2232.706600600629</v>
+        <v>2401.860665353684</v>
       </c>
       <c r="Q20" t="n">
-        <v>2404.749914910979</v>
+        <v>2573.903979664035</v>
       </c>
       <c r="R20" t="n">
-        <v>2673.98029171087</v>
+        <v>2673.980291710868</v>
       </c>
       <c r="S20" t="n">
-        <v>2673.98029171087</v>
+        <v>2673.980291710868</v>
       </c>
       <c r="T20" t="n">
-        <v>2673.98029171087</v>
+        <v>2461.028722344883</v>
       </c>
       <c r="U20" t="n">
-        <v>2673.98029171087</v>
+        <v>2201.936460237771</v>
       </c>
       <c r="V20" t="n">
-        <v>2311.363341644696</v>
+        <v>2201.936460237771</v>
       </c>
       <c r="W20" t="n">
-        <v>1906.507887055729</v>
+        <v>1797.081005648805</v>
       </c>
       <c r="X20" t="n">
-        <v>1906.507887055729</v>
+        <v>1797.081005648805</v>
       </c>
       <c r="Y20" t="n">
-        <v>1498.221763355383</v>
+        <v>1797.081005648805</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1536.629811720907</v>
+        <v>550.3819343640945</v>
       </c>
       <c r="C21" t="n">
-        <v>1430.17335055755</v>
+        <v>443.9254732007368</v>
       </c>
       <c r="D21" t="n">
-        <v>1335.083061704103</v>
+        <v>348.8351843472901</v>
       </c>
       <c r="E21" t="n">
-        <v>1240.962647031057</v>
+        <v>254.7147696742438</v>
       </c>
       <c r="F21" t="n">
-        <v>1157.578808647218</v>
+        <v>171.3309312904054</v>
       </c>
       <c r="G21" t="n">
-        <v>1073.063441939411</v>
+        <v>86.81556458259863</v>
       </c>
       <c r="H21" t="n">
-        <v>1039.72748319103</v>
+        <v>53.47960583421737</v>
       </c>
       <c r="I21" t="n">
-        <v>1069.076000610616</v>
+        <v>108.8917964142604</v>
       </c>
       <c r="J21" t="n">
-        <v>1386.249597961529</v>
+        <v>282.828942510375</v>
       </c>
       <c r="K21" t="n">
-        <v>1523.896013991704</v>
+        <v>420.4753585405504</v>
       </c>
       <c r="L21" t="n">
-        <v>1708.978606967064</v>
+        <v>605.5579515159104</v>
       </c>
       <c r="M21" t="n">
-        <v>1924.961263187377</v>
+        <v>821.5406077362226</v>
       </c>
       <c r="N21" t="n">
-        <v>2146.660337641389</v>
+        <v>1043.239682190235</v>
       </c>
       <c r="O21" t="n">
-        <v>2349.471678336962</v>
+        <v>1246.051022885808</v>
       </c>
       <c r="P21" t="n">
-        <v>2512.245659408798</v>
+        <v>1408.825003957644</v>
       </c>
       <c r="Q21" t="n">
-        <v>2621.05575507499</v>
+        <v>1517.635099623837</v>
       </c>
       <c r="R21" t="n">
-        <v>2673.98029171087</v>
+        <v>1687.732414354056</v>
       </c>
       <c r="S21" t="n">
-        <v>2626.679577909909</v>
+        <v>1640.431700553095</v>
       </c>
       <c r="T21" t="n">
-        <v>2500.006528367276</v>
+        <v>1513.758651010463</v>
       </c>
       <c r="U21" t="n">
-        <v>2323.727199987376</v>
+        <v>1337.479322630564</v>
       </c>
       <c r="V21" t="n">
-        <v>2124.609682049376</v>
+        <v>1138.361804692563</v>
       </c>
       <c r="W21" t="n">
-        <v>1939.28692778257</v>
+        <v>953.0390504257568</v>
       </c>
       <c r="X21" t="n">
-        <v>1784.41949202145</v>
+        <v>798.1716146646369</v>
       </c>
       <c r="Y21" t="n">
-        <v>1657.93371280067</v>
+        <v>671.6858354438576</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>782.6767714065479</v>
+        <v>782.6767714065465</v>
       </c>
       <c r="C22" t="n">
-        <v>610.1150598897729</v>
+        <v>610.1150598897715</v>
       </c>
       <c r="D22" t="n">
-        <v>444.2370670912956</v>
+        <v>444.2370670912942</v>
       </c>
       <c r="E22" t="n">
-        <v>274.4790633420328</v>
+        <v>274.4790633420315</v>
       </c>
       <c r="F22" t="n">
-        <v>97.77200930378902</v>
+        <v>97.77200930378766</v>
       </c>
       <c r="G22" t="n">
-        <v>53.47960583421739</v>
+        <v>97.77200930378766</v>
       </c>
       <c r="H22" t="n">
-        <v>53.47960583421739</v>
+        <v>97.77200930378766</v>
       </c>
       <c r="I22" t="n">
-        <v>53.47960583421739</v>
+        <v>53.47960583421737</v>
       </c>
       <c r="J22" t="n">
-        <v>190.5840952529415</v>
+        <v>190.5840952529414</v>
       </c>
       <c r="K22" t="n">
         <v>273.6118692488984</v>
       </c>
       <c r="L22" t="n">
-        <v>798.0687162695888</v>
+        <v>379.8588345016276</v>
       </c>
       <c r="M22" t="n">
-        <v>1369.575111385735</v>
+        <v>951.3652296177742</v>
       </c>
       <c r="N22" t="n">
-        <v>1921.192797146975</v>
+        <v>1502.982915379014</v>
       </c>
       <c r="O22" t="n">
-        <v>2441.87267470524</v>
+        <v>2023.662792937278</v>
       </c>
       <c r="P22" t="n">
-        <v>2528.304717368949</v>
+        <v>2434.805399204696</v>
       </c>
       <c r="Q22" t="n">
-        <v>2662.839240287869</v>
+        <v>2662.839240287868</v>
       </c>
       <c r="R22" t="n">
-        <v>2673.98029171087</v>
+        <v>2673.980291710868</v>
       </c>
       <c r="S22" t="n">
-        <v>2527.445959127011</v>
+        <v>2527.445959127009</v>
       </c>
       <c r="T22" t="n">
-        <v>2284.681957137144</v>
+        <v>2284.681957137143</v>
       </c>
       <c r="U22" t="n">
-        <v>2006.288728021292</v>
+        <v>2006.288728021291</v>
       </c>
       <c r="V22" t="n">
-        <v>1719.333219891723</v>
+        <v>1719.333219891721</v>
       </c>
       <c r="W22" t="n">
-        <v>1447.306815478014</v>
+        <v>1447.306815478013</v>
       </c>
       <c r="X22" t="n">
-        <v>1201.915060811427</v>
+        <v>1201.915060811426</v>
       </c>
       <c r="Y22" t="n">
-        <v>974.4953901255351</v>
+        <v>974.4953901255337</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1795.719377637328</v>
+        <v>1598.290101109626</v>
       </c>
       <c r="C23" t="n">
-        <v>1357.576904820751</v>
+        <v>1160.147628293049</v>
       </c>
       <c r="D23" t="n">
-        <v>921.667119995196</v>
+        <v>1160.147628293049</v>
       </c>
       <c r="E23" t="n">
-        <v>487.8923751534912</v>
+        <v>1160.147628293049</v>
       </c>
       <c r="F23" t="n">
-        <v>60.02494556269892</v>
+        <v>732.2801987022569</v>
       </c>
       <c r="G23" t="n">
-        <v>60.02494556269892</v>
+        <v>332.5078745239162</v>
       </c>
       <c r="H23" t="n">
         <v>60.02494556269892</v>
@@ -5989,25 +5989,25 @@
         <v>121.0367359757999</v>
       </c>
       <c r="J23" t="n">
-        <v>256.2541660131699</v>
+        <v>667.0163044524187</v>
       </c>
       <c r="K23" t="n">
-        <v>458.9100421364249</v>
+        <v>869.6721805756738</v>
       </c>
       <c r="L23" t="n">
-        <v>1193.204270006912</v>
+        <v>1121.084714964955</v>
       </c>
       <c r="M23" t="n">
-        <v>1472.949156524232</v>
+        <v>1400.829601482275</v>
       </c>
       <c r="N23" t="n">
-        <v>1757.220607769676</v>
+        <v>1685.101052727719</v>
       </c>
       <c r="O23" t="n">
-        <v>2500.029309108075</v>
+        <v>1953.53052314948</v>
       </c>
       <c r="P23" t="n">
-        <v>2729.127651777763</v>
+        <v>2182.628865819167</v>
       </c>
       <c r="Q23" t="n">
         <v>2901.170966088112</v>
@@ -6016,25 +6016,25 @@
         <v>3001.247278134946</v>
       </c>
       <c r="S23" t="n">
-        <v>3001.247278134946</v>
+        <v>2954.636649602217</v>
       </c>
       <c r="T23" t="n">
-        <v>3001.247278134946</v>
+        <v>2954.636649602217</v>
       </c>
       <c r="U23" t="n">
-        <v>3001.247278134946</v>
+        <v>2830.574142819628</v>
       </c>
       <c r="V23" t="n">
-        <v>3001.247278134946</v>
+        <v>2830.574142819628</v>
       </c>
       <c r="W23" t="n">
-        <v>2623.147964758364</v>
+        <v>2425.718688230661</v>
       </c>
       <c r="X23" t="n">
-        <v>2204.005501337675</v>
+        <v>2006.576224809972</v>
       </c>
       <c r="Y23" t="n">
-        <v>1795.719377637328</v>
+        <v>1598.290101109626</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>60.02494556269892</v>
       </c>
       <c r="I24" t="n">
-        <v>89.37346298228435</v>
+        <v>115.4371361427419</v>
       </c>
       <c r="J24" t="n">
-        <v>406.5470603331967</v>
+        <v>195.971711140868</v>
       </c>
       <c r="K24" t="n">
-        <v>544.1934763633722</v>
+        <v>333.6181271710435</v>
       </c>
       <c r="L24" t="n">
-        <v>729.2760693387321</v>
+        <v>518.7007201464035</v>
       </c>
       <c r="M24" t="n">
-        <v>945.2587255590443</v>
+        <v>734.6833763667156</v>
       </c>
       <c r="N24" t="n">
-        <v>1166.957800013057</v>
+        <v>956.3824508207279</v>
       </c>
       <c r="O24" t="n">
-        <v>1369.76914070863</v>
+        <v>1159.193791516301</v>
       </c>
       <c r="P24" t="n">
-        <v>1532.543121780465</v>
+        <v>1321.967772588137</v>
       </c>
       <c r="Q24" t="n">
-        <v>1641.353217446658</v>
+        <v>1524.180439352319</v>
       </c>
       <c r="R24" t="n">
         <v>1694.277754082538</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1109.943757830625</v>
+        <v>1109.943757830624</v>
       </c>
       <c r="C25" t="n">
-        <v>937.3820463138496</v>
+        <v>937.3820463138491</v>
       </c>
       <c r="D25" t="n">
-        <v>771.5040535153723</v>
+        <v>771.5040535153719</v>
       </c>
       <c r="E25" t="n">
-        <v>601.7460497661095</v>
+        <v>601.7460497661091</v>
       </c>
       <c r="F25" t="n">
-        <v>425.0389957278658</v>
+        <v>425.0389957278654</v>
       </c>
       <c r="G25" t="n">
-        <v>260.1768673228098</v>
+        <v>260.1768673228093</v>
       </c>
       <c r="H25" t="n">
         <v>126.7574688731449</v>
@@ -6147,16 +6147,16 @@
         <v>60.02494556269892</v>
       </c>
       <c r="J25" t="n">
-        <v>197.1294349814229</v>
+        <v>110.5497498167331</v>
       </c>
       <c r="K25" t="n">
-        <v>328.0654184027138</v>
+        <v>328.0654184027134</v>
       </c>
       <c r="L25" t="n">
-        <v>852.5222654234041</v>
+        <v>852.5222654234036</v>
       </c>
       <c r="M25" t="n">
-        <v>1424.028660539551</v>
+        <v>1424.02866053955</v>
       </c>
       <c r="N25" t="n">
         <v>1975.64634630079</v>
@@ -6165,10 +6165,10 @@
         <v>2496.326223859055</v>
       </c>
       <c r="P25" t="n">
-        <v>2930.265160493107</v>
+        <v>2930.265160493106</v>
       </c>
       <c r="Q25" t="n">
-        <v>2990.106226711946</v>
+        <v>2990.106226711945</v>
       </c>
       <c r="R25" t="n">
         <v>3001.247278134946</v>
@@ -6183,16 +6183,16 @@
         <v>2333.555714445369</v>
       </c>
       <c r="V25" t="n">
-        <v>2046.6002063158</v>
+        <v>2046.600206315799</v>
       </c>
       <c r="W25" t="n">
         <v>1774.573801902091</v>
       </c>
       <c r="X25" t="n">
-        <v>1529.182047235504</v>
+        <v>1529.182047235503</v>
       </c>
       <c r="Y25" t="n">
-        <v>1301.762376549612</v>
+        <v>1301.762376549611</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1160.147628293049</v>
+        <v>732.2801987022569</v>
       </c>
       <c r="C26" t="n">
-        <v>1160.147628293049</v>
+        <v>732.2801987022569</v>
       </c>
       <c r="D26" t="n">
-        <v>1160.147628293049</v>
+        <v>732.2801987022569</v>
       </c>
       <c r="E26" t="n">
-        <v>1160.147628293049</v>
+        <v>732.2801987022569</v>
       </c>
       <c r="F26" t="n">
         <v>732.2801987022569</v>
@@ -6226,28 +6226,28 @@
         <v>121.0367359757999</v>
       </c>
       <c r="J26" t="n">
-        <v>691.5088534660878</v>
+        <v>691.5088534660879</v>
       </c>
       <c r="K26" t="n">
-        <v>894.1647295893428</v>
+        <v>894.1647295893429</v>
       </c>
       <c r="L26" t="n">
-        <v>1145.577263978624</v>
+        <v>1145.577263978625</v>
       </c>
       <c r="M26" t="n">
         <v>1425.322150495944</v>
       </c>
       <c r="N26" t="n">
-        <v>1709.593601741388</v>
+        <v>1709.593601741389</v>
       </c>
       <c r="O26" t="n">
-        <v>1978.023072163149</v>
+        <v>1978.02307216315</v>
       </c>
       <c r="P26" t="n">
         <v>2207.121414832837</v>
       </c>
       <c r="Q26" t="n">
-        <v>2901.170966088112</v>
+        <v>2732.016901335055</v>
       </c>
       <c r="R26" t="n">
         <v>3001.247278134946</v>
@@ -6256,22 +6256,22 @@
         <v>3001.247278134946</v>
       </c>
       <c r="T26" t="n">
-        <v>3001.247278134946</v>
+        <v>2788.29570876896</v>
       </c>
       <c r="U26" t="n">
-        <v>2762.205727133444</v>
+        <v>2529.203446661849</v>
       </c>
       <c r="V26" t="n">
-        <v>2399.588777067271</v>
+        <v>2166.586496595675</v>
       </c>
       <c r="W26" t="n">
-        <v>1994.733322478304</v>
+        <v>1761.731042006709</v>
       </c>
       <c r="X26" t="n">
-        <v>1994.733322478304</v>
+        <v>1342.588578586019</v>
       </c>
       <c r="Y26" t="n">
-        <v>1586.447198777957</v>
+        <v>934.3024548856725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.02494556269892</v>
       </c>
       <c r="I27" t="n">
-        <v>89.37346298228435</v>
+        <v>115.4371361427419</v>
       </c>
       <c r="J27" t="n">
-        <v>406.5470603331967</v>
+        <v>289.3742822388566</v>
       </c>
       <c r="K27" t="n">
-        <v>544.1934763633722</v>
+        <v>427.0206982690319</v>
       </c>
       <c r="L27" t="n">
-        <v>729.2760693387321</v>
+        <v>612.103291244392</v>
       </c>
       <c r="M27" t="n">
-        <v>945.2587255590443</v>
+        <v>828.0859474647041</v>
       </c>
       <c r="N27" t="n">
-        <v>1166.957800013057</v>
+        <v>1049.785021918716</v>
       </c>
       <c r="O27" t="n">
-        <v>1369.76914070863</v>
+        <v>1252.59636261429</v>
       </c>
       <c r="P27" t="n">
-        <v>1532.543121780465</v>
+        <v>1415.370343686126</v>
       </c>
       <c r="Q27" t="n">
-        <v>1641.353217446658</v>
+        <v>1524.180439352319</v>
       </c>
       <c r="R27" t="n">
         <v>1694.277754082538</v>
@@ -6363,43 +6363,43 @@
         <v>1109.943757830624</v>
       </c>
       <c r="C28" t="n">
-        <v>937.3820463138487</v>
+        <v>937.3820463138491</v>
       </c>
       <c r="D28" t="n">
-        <v>771.5040535153714</v>
+        <v>771.5040535153719</v>
       </c>
       <c r="E28" t="n">
-        <v>601.7460497661086</v>
+        <v>601.7460497661091</v>
       </c>
       <c r="F28" t="n">
-        <v>425.0389957278649</v>
+        <v>425.0389957278654</v>
       </c>
       <c r="G28" t="n">
-        <v>260.1768673228088</v>
+        <v>260.1768673228093</v>
       </c>
       <c r="H28" t="n">
-        <v>126.7574688731444</v>
+        <v>126.7574688731449</v>
       </c>
       <c r="I28" t="n">
         <v>60.02494556269892</v>
       </c>
       <c r="J28" t="n">
-        <v>149.5933089416308</v>
+        <v>110.5497498167331</v>
       </c>
       <c r="K28" t="n">
-        <v>507.3795375087233</v>
+        <v>468.3359783838256</v>
       </c>
       <c r="L28" t="n">
-        <v>1031.836384529414</v>
+        <v>992.792825404516</v>
       </c>
       <c r="M28" t="n">
-        <v>1603.34277964556</v>
+        <v>1255.835885675218</v>
       </c>
       <c r="N28" t="n">
-        <v>2154.9604654068</v>
+        <v>1807.453571436457</v>
       </c>
       <c r="O28" t="n">
-        <v>2675.640342965064</v>
+        <v>2328.133448994722</v>
       </c>
       <c r="P28" t="n">
         <v>2762.072385628774</v>
@@ -6414,16 +6414,16 @@
         <v>2854.712945551087</v>
       </c>
       <c r="T28" t="n">
-        <v>2611.94894356122</v>
+        <v>2611.948943561221</v>
       </c>
       <c r="U28" t="n">
-        <v>2333.555714445368</v>
+        <v>2333.555714445369</v>
       </c>
       <c r="V28" t="n">
         <v>2046.600206315799</v>
       </c>
       <c r="W28" t="n">
-        <v>1774.57380190209</v>
+        <v>1774.573801902091</v>
       </c>
       <c r="X28" t="n">
         <v>1529.182047235503</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1795.719377637328</v>
+        <v>732.2801987022569</v>
       </c>
       <c r="C29" t="n">
-        <v>1357.576904820751</v>
+        <v>732.2801987022569</v>
       </c>
       <c r="D29" t="n">
-        <v>921.667119995196</v>
+        <v>732.2801987022569</v>
       </c>
       <c r="E29" t="n">
-        <v>487.8923751534912</v>
+        <v>732.2801987022569</v>
       </c>
       <c r="F29" t="n">
-        <v>60.02494556269892</v>
+        <v>732.2801987022569</v>
       </c>
       <c r="G29" t="n">
-        <v>60.02494556269892</v>
+        <v>332.5078745239162</v>
       </c>
       <c r="H29" t="n">
         <v>60.02494556269892</v>
@@ -6463,28 +6463,28 @@
         <v>121.0367359757999</v>
       </c>
       <c r="J29" t="n">
-        <v>691.5088534660878</v>
+        <v>691.5088534660879</v>
       </c>
       <c r="K29" t="n">
-        <v>894.1647295893428</v>
+        <v>894.1647295893429</v>
       </c>
       <c r="L29" t="n">
-        <v>1145.577263978624</v>
+        <v>1498.429436170493</v>
       </c>
       <c r="M29" t="n">
-        <v>1425.322150495944</v>
+        <v>1778.174322687813</v>
       </c>
       <c r="N29" t="n">
-        <v>1709.593601741388</v>
+        <v>2062.445773933257</v>
       </c>
       <c r="O29" t="n">
-        <v>1978.023072163149</v>
+        <v>2330.875244355018</v>
       </c>
       <c r="P29" t="n">
-        <v>2207.121414832837</v>
+        <v>2559.973587024705</v>
       </c>
       <c r="Q29" t="n">
-        <v>2901.170966088112</v>
+        <v>2732.016901335055</v>
       </c>
       <c r="R29" t="n">
         <v>3001.247278134946</v>
@@ -6499,16 +6499,16 @@
         <v>2529.203446661849</v>
       </c>
       <c r="V29" t="n">
-        <v>2222.018948122236</v>
+        <v>2166.586496595675</v>
       </c>
       <c r="W29" t="n">
-        <v>2222.018948122236</v>
+        <v>1761.731042006709</v>
       </c>
       <c r="X29" t="n">
-        <v>2222.018948122236</v>
+        <v>1342.588578586019</v>
       </c>
       <c r="Y29" t="n">
-        <v>2222.018948122236</v>
+        <v>934.3024548856725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>60.02494556269892</v>
       </c>
       <c r="I30" t="n">
-        <v>89.37346298228435</v>
+        <v>115.4371361427419</v>
       </c>
       <c r="J30" t="n">
-        <v>289.374282238857</v>
+        <v>195.971711140868</v>
       </c>
       <c r="K30" t="n">
-        <v>427.0206982690324</v>
+        <v>333.6181271710435</v>
       </c>
       <c r="L30" t="n">
-        <v>612.1032912443924</v>
+        <v>518.7007201464035</v>
       </c>
       <c r="M30" t="n">
-        <v>828.0859474647045</v>
+        <v>734.6833763667156</v>
       </c>
       <c r="N30" t="n">
-        <v>1049.785021918717</v>
+        <v>956.3824508207279</v>
       </c>
       <c r="O30" t="n">
-        <v>1252.59636261429</v>
+        <v>1159.193791516301</v>
       </c>
       <c r="P30" t="n">
-        <v>1415.370343686126</v>
+        <v>1321.967772588137</v>
       </c>
       <c r="Q30" t="n">
         <v>1524.180439352319</v>
@@ -6621,25 +6621,25 @@
         <v>60.02494556269892</v>
       </c>
       <c r="J31" t="n">
-        <v>197.1294349814229</v>
+        <v>110.5497498167331</v>
       </c>
       <c r="K31" t="n">
-        <v>554.9156635485155</v>
+        <v>468.3359783838256</v>
       </c>
       <c r="L31" t="n">
-        <v>1079.372510569206</v>
+        <v>992.792825404516</v>
       </c>
       <c r="M31" t="n">
-        <v>1255.835885675218</v>
+        <v>1564.299220520662</v>
       </c>
       <c r="N31" t="n">
-        <v>1807.453571436458</v>
+        <v>2115.916906281902</v>
       </c>
       <c r="O31" t="n">
-        <v>2328.133448994723</v>
+        <v>2636.596783840167</v>
       </c>
       <c r="P31" t="n">
-        <v>2762.072385628774</v>
+        <v>2930.265160493107</v>
       </c>
       <c r="Q31" t="n">
         <v>2990.106226711946</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1338.2915419301</v>
+        <v>732.2801987022569</v>
       </c>
       <c r="C32" t="n">
-        <v>1338.2915419301</v>
+        <v>732.2801987022569</v>
       </c>
       <c r="D32" t="n">
-        <v>902.3817571045442</v>
+        <v>732.2801987022569</v>
       </c>
       <c r="E32" t="n">
-        <v>902.3817571045442</v>
+        <v>732.2801987022569</v>
       </c>
       <c r="F32" t="n">
-        <v>474.514327513752</v>
+        <v>732.2801987022569</v>
       </c>
       <c r="G32" t="n">
-        <v>74.74200333541125</v>
+        <v>332.5078745239162</v>
       </c>
       <c r="H32" t="n">
         <v>60.02494556269892</v>
@@ -6700,28 +6700,28 @@
         <v>121.0367359757999</v>
       </c>
       <c r="J32" t="n">
-        <v>256.2541660131699</v>
+        <v>691.5088534660879</v>
       </c>
       <c r="K32" t="n">
-        <v>458.9100421364249</v>
+        <v>894.1647295893429</v>
       </c>
       <c r="L32" t="n">
-        <v>710.3225765257064</v>
+        <v>1145.577263978625</v>
       </c>
       <c r="M32" t="n">
-        <v>990.067463043026</v>
+        <v>1425.322150495944</v>
       </c>
       <c r="N32" t="n">
-        <v>1274.33891428847</v>
+        <v>1709.593601741389</v>
       </c>
       <c r="O32" t="n">
-        <v>1542.768384710231</v>
+        <v>1978.02307216315</v>
       </c>
       <c r="P32" t="n">
-        <v>2013.474801066111</v>
+        <v>2720.831773501549</v>
       </c>
       <c r="Q32" t="n">
-        <v>2732.016901335055</v>
+        <v>2892.875087811899</v>
       </c>
       <c r="R32" t="n">
         <v>3001.247278134946</v>
@@ -6730,22 +6730,22 @@
         <v>2954.636649602217</v>
       </c>
       <c r="T32" t="n">
-        <v>2954.636649602217</v>
+        <v>2741.685080236231</v>
       </c>
       <c r="U32" t="n">
-        <v>2954.636649602217</v>
+        <v>2482.59281812912</v>
       </c>
       <c r="V32" t="n">
-        <v>2592.019699536043</v>
+        <v>2119.975868062947</v>
       </c>
       <c r="W32" t="n">
-        <v>2592.019699536043</v>
+        <v>1715.12041347398</v>
       </c>
       <c r="X32" t="n">
-        <v>2172.877236115354</v>
+        <v>1295.97795005329</v>
       </c>
       <c r="Y32" t="n">
-        <v>1764.591112415008</v>
+        <v>887.6918263529438</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>115.4371361427419</v>
       </c>
       <c r="J33" t="n">
-        <v>289.374282238857</v>
+        <v>195.971711140868</v>
       </c>
       <c r="K33" t="n">
-        <v>427.0206982690324</v>
+        <v>333.6181271710435</v>
       </c>
       <c r="L33" t="n">
-        <v>612.1032912443924</v>
+        <v>518.7007201464035</v>
       </c>
       <c r="M33" t="n">
-        <v>828.0859474647045</v>
+        <v>734.6833763667156</v>
       </c>
       <c r="N33" t="n">
-        <v>1049.785021918717</v>
+        <v>956.3824508207279</v>
       </c>
       <c r="O33" t="n">
-        <v>1252.59636261429</v>
+        <v>1159.193791516301</v>
       </c>
       <c r="P33" t="n">
-        <v>1415.370343686126</v>
+        <v>1321.967772588137</v>
       </c>
       <c r="Q33" t="n">
         <v>1524.180439352319</v>
@@ -6837,7 +6837,7 @@
         <v>1109.943757830624</v>
       </c>
       <c r="C34" t="n">
-        <v>937.3820463138492</v>
+        <v>937.3820463138491</v>
       </c>
       <c r="D34" t="n">
         <v>771.5040535153719</v>
@@ -6849,7 +6849,7 @@
         <v>425.0389957278653</v>
       </c>
       <c r="G34" t="n">
-        <v>260.1768673228091</v>
+        <v>260.1768673228093</v>
       </c>
       <c r="H34" t="n">
         <v>126.7574688731449</v>
@@ -6858,25 +6858,25 @@
         <v>60.02494556269892</v>
       </c>
       <c r="J34" t="n">
-        <v>110.5497498167331</v>
+        <v>197.129434981423</v>
       </c>
       <c r="K34" t="n">
-        <v>328.0654184027134</v>
+        <v>554.9156635485155</v>
       </c>
       <c r="L34" t="n">
-        <v>852.5222654234036</v>
+        <v>1079.372510569206</v>
       </c>
       <c r="M34" t="n">
-        <v>1424.02866053955</v>
+        <v>1255.835885675218</v>
       </c>
       <c r="N34" t="n">
-        <v>1975.64634630079</v>
+        <v>1807.453571436457</v>
       </c>
       <c r="O34" t="n">
-        <v>2496.326223859055</v>
+        <v>2328.133448994722</v>
       </c>
       <c r="P34" t="n">
-        <v>2930.265160493106</v>
+        <v>2762.072385628774</v>
       </c>
       <c r="Q34" t="n">
         <v>2990.106226711945</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1795.719377637328</v>
+        <v>1957.140683695086</v>
       </c>
       <c r="C35" t="n">
-        <v>1357.576904820751</v>
+        <v>1518.998210878509</v>
       </c>
       <c r="D35" t="n">
-        <v>921.667119995196</v>
+        <v>1083.088426052954</v>
       </c>
       <c r="E35" t="n">
-        <v>487.8923751534912</v>
+        <v>1083.088426052954</v>
       </c>
       <c r="F35" t="n">
-        <v>60.02494556269892</v>
+        <v>655.2209964621616</v>
       </c>
       <c r="G35" t="n">
-        <v>60.02494556269892</v>
+        <v>255.4486722838208</v>
       </c>
       <c r="H35" t="n">
         <v>60.02494556269892</v>
@@ -6937,52 +6937,52 @@
         <v>121.0367359757999</v>
       </c>
       <c r="J35" t="n">
-        <v>691.5088534660879</v>
+        <v>256.25416601317</v>
       </c>
       <c r="K35" t="n">
-        <v>894.1647295893429</v>
+        <v>458.9100421364251</v>
       </c>
       <c r="L35" t="n">
-        <v>1145.577263978625</v>
+        <v>710.3225765257066</v>
       </c>
       <c r="M35" t="n">
-        <v>1425.322150495944</v>
+        <v>990.0674630430264</v>
       </c>
       <c r="N35" t="n">
-        <v>1709.593601741389</v>
+        <v>1274.338914288471</v>
       </c>
       <c r="O35" t="n">
-        <v>1978.02307216315</v>
+        <v>1542.768384710232</v>
       </c>
       <c r="P35" t="n">
-        <v>2207.121414832837</v>
+        <v>2013.474801066111</v>
       </c>
       <c r="Q35" t="n">
-        <v>2901.170966088112</v>
+        <v>2732.016901335055</v>
       </c>
       <c r="R35" t="n">
         <v>3001.247278134946</v>
       </c>
       <c r="S35" t="n">
-        <v>2954.636649602217</v>
+        <v>3001.247278134946</v>
       </c>
       <c r="T35" t="n">
-        <v>2741.685080236231</v>
+        <v>2788.29570876896</v>
       </c>
       <c r="U35" t="n">
-        <v>2741.685080236231</v>
+        <v>2788.29570876896</v>
       </c>
       <c r="V35" t="n">
-        <v>2379.068130170058</v>
+        <v>2788.29570876896</v>
       </c>
       <c r="W35" t="n">
-        <v>2379.068130170058</v>
+        <v>2383.440254179994</v>
       </c>
       <c r="X35" t="n">
-        <v>2379.068130170058</v>
+        <v>2383.440254179994</v>
       </c>
       <c r="Y35" t="n">
-        <v>2222.018948122236</v>
+        <v>2383.440254179994</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>60.02494556269892</v>
       </c>
       <c r="I36" t="n">
-        <v>89.37346298228435</v>
+        <v>115.437136142742</v>
       </c>
       <c r="J36" t="n">
-        <v>406.5470603331962</v>
+        <v>195.9717111408681</v>
       </c>
       <c r="K36" t="n">
-        <v>544.1934763633717</v>
+        <v>333.6181271710435</v>
       </c>
       <c r="L36" t="n">
-        <v>729.2760693387316</v>
+        <v>518.7007201464036</v>
       </c>
       <c r="M36" t="n">
-        <v>945.2587255590438</v>
+        <v>734.6833763667157</v>
       </c>
       <c r="N36" t="n">
-        <v>1166.957800013056</v>
+        <v>956.382450820728</v>
       </c>
       <c r="O36" t="n">
-        <v>1369.769140708629</v>
+        <v>1159.193791516301</v>
       </c>
       <c r="P36" t="n">
-        <v>1532.543121780465</v>
+        <v>1321.967772588137</v>
       </c>
       <c r="Q36" t="n">
-        <v>1641.353217446658</v>
+        <v>1524.180439352319</v>
       </c>
       <c r="R36" t="n">
         <v>1694.277754082538</v>
@@ -7074,7 +7074,7 @@
         <v>1109.943757830624</v>
       </c>
       <c r="C37" t="n">
-        <v>937.3820463138492</v>
+        <v>937.3820463138491</v>
       </c>
       <c r="D37" t="n">
         <v>771.5040535153719</v>
@@ -7086,10 +7086,10 @@
         <v>425.0389957278653</v>
       </c>
       <c r="G37" t="n">
-        <v>260.1768673228091</v>
+        <v>260.1768673228092</v>
       </c>
       <c r="H37" t="n">
-        <v>126.7574688731447</v>
+        <v>126.7574688731449</v>
       </c>
       <c r="I37" t="n">
         <v>60.02494556269892</v>
@@ -7098,19 +7098,19 @@
         <v>197.129434981423</v>
       </c>
       <c r="K37" t="n">
-        <v>554.9156635485155</v>
+        <v>507.3795375087226</v>
       </c>
       <c r="L37" t="n">
-        <v>1079.372510569206</v>
+        <v>1031.836384529413</v>
       </c>
       <c r="M37" t="n">
-        <v>1255.835885675218</v>
+        <v>1603.342779645559</v>
       </c>
       <c r="N37" t="n">
-        <v>1807.453571436457</v>
+        <v>2154.960465406799</v>
       </c>
       <c r="O37" t="n">
-        <v>2328.133448994722</v>
+        <v>2675.640342965064</v>
       </c>
       <c r="P37" t="n">
         <v>2762.072385628774</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1170.422671518834</v>
+        <v>1669.451239839807</v>
       </c>
       <c r="C38" t="n">
-        <v>732.2801987022569</v>
+        <v>1231.30876702323</v>
       </c>
       <c r="D38" t="n">
-        <v>732.2801987022569</v>
+        <v>795.3989821976747</v>
       </c>
       <c r="E38" t="n">
-        <v>732.2801987022569</v>
+        <v>361.6242373559699</v>
       </c>
       <c r="F38" t="n">
-        <v>732.2801987022569</v>
+        <v>361.6242373559699</v>
       </c>
       <c r="G38" t="n">
-        <v>332.5078745239162</v>
+        <v>60.02494556269892</v>
       </c>
       <c r="H38" t="n">
         <v>60.02494556269892</v>
@@ -7177,25 +7177,25 @@
         <v>691.5088534660879</v>
       </c>
       <c r="K38" t="n">
-        <v>1247.016901781212</v>
+        <v>894.1647295893429</v>
       </c>
       <c r="L38" t="n">
-        <v>1498.429436170494</v>
+        <v>1145.577263978625</v>
       </c>
       <c r="M38" t="n">
-        <v>1778.174322687813</v>
+        <v>1425.322150495944</v>
       </c>
       <c r="N38" t="n">
-        <v>2062.445773933257</v>
+        <v>1709.593601741389</v>
       </c>
       <c r="O38" t="n">
-        <v>2330.875244355018</v>
+        <v>1978.02307216315</v>
       </c>
       <c r="P38" t="n">
-        <v>2559.973587024706</v>
+        <v>2207.121414832837</v>
       </c>
       <c r="Q38" t="n">
-        <v>2732.016901335056</v>
+        <v>2901.170966088112</v>
       </c>
       <c r="R38" t="n">
         <v>3001.247278134946</v>
@@ -7204,22 +7204,22 @@
         <v>2954.636649602217</v>
       </c>
       <c r="T38" t="n">
-        <v>2741.685080236232</v>
+        <v>2741.685080236231</v>
       </c>
       <c r="U38" t="n">
-        <v>2482.592818129121</v>
+        <v>2482.59281812912</v>
       </c>
       <c r="V38" t="n">
-        <v>2119.975868062947</v>
+        <v>2482.59281812912</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.12041347398</v>
+        <v>2077.737363540154</v>
       </c>
       <c r="X38" t="n">
-        <v>1715.12041347398</v>
+        <v>2077.737363540154</v>
       </c>
       <c r="Y38" t="n">
-        <v>1306.834289773634</v>
+        <v>1669.451239839807</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>60.02494556269892</v>
       </c>
       <c r="I39" t="n">
-        <v>89.37346298228437</v>
+        <v>89.37346298228435</v>
       </c>
       <c r="J39" t="n">
-        <v>406.5470603331962</v>
+        <v>169.9080379804105</v>
       </c>
       <c r="K39" t="n">
-        <v>544.1934763633717</v>
+        <v>307.5544540105859</v>
       </c>
       <c r="L39" t="n">
-        <v>729.2760693387316</v>
+        <v>492.637046985946</v>
       </c>
       <c r="M39" t="n">
-        <v>945.2587255590438</v>
+        <v>708.619703206258</v>
       </c>
       <c r="N39" t="n">
-        <v>1166.957800013056</v>
+        <v>930.3187776602703</v>
       </c>
       <c r="O39" t="n">
-        <v>1369.769140708629</v>
+        <v>1133.130118355844</v>
       </c>
       <c r="P39" t="n">
-        <v>1532.543121780465</v>
+        <v>1295.90409942768</v>
       </c>
       <c r="Q39" t="n">
         <v>1641.353217446658</v>
@@ -7323,7 +7323,7 @@
         <v>425.0389957278653</v>
       </c>
       <c r="G40" t="n">
-        <v>260.1768673228092</v>
+        <v>260.1768673228093</v>
       </c>
       <c r="H40" t="n">
         <v>126.7574688731449</v>
@@ -7332,28 +7332,28 @@
         <v>60.02494556269892</v>
       </c>
       <c r="J40" t="n">
-        <v>197.129434981423</v>
+        <v>110.5497498167331</v>
       </c>
       <c r="K40" t="n">
-        <v>554.9156635485155</v>
+        <v>468.3359783838256</v>
       </c>
       <c r="L40" t="n">
-        <v>684.3294905590718</v>
+        <v>992.792825404516</v>
       </c>
       <c r="M40" t="n">
-        <v>1255.835885675218</v>
+        <v>1564.299220520662</v>
       </c>
       <c r="N40" t="n">
-        <v>1807.453571436458</v>
+        <v>2115.916906281902</v>
       </c>
       <c r="O40" t="n">
-        <v>2328.133448994723</v>
+        <v>2636.596783840167</v>
       </c>
       <c r="P40" t="n">
-        <v>2762.072385628774</v>
+        <v>2930.265160493106</v>
       </c>
       <c r="Q40" t="n">
-        <v>2990.106226711946</v>
+        <v>2990.106226711945</v>
       </c>
       <c r="R40" t="n">
         <v>3001.247278134946</v>
@@ -7408,19 +7408,19 @@
         <v>40.48900833008987</v>
       </c>
       <c r="I41" t="n">
-        <v>101.5007987431908</v>
+        <v>101.5007987431913</v>
       </c>
       <c r="J41" t="n">
-        <v>236.7182287805609</v>
+        <v>236.7182287805614</v>
       </c>
       <c r="K41" t="n">
-        <v>439.374104903816</v>
+        <v>439.3741049038164</v>
       </c>
       <c r="L41" t="n">
-        <v>690.7866392930974</v>
+        <v>690.7866392930979</v>
       </c>
       <c r="M41" t="n">
-        <v>970.5315258104174</v>
+        <v>970.5315258104176</v>
       </c>
       <c r="N41" t="n">
         <v>1254.802977055862</v>
@@ -7435,25 +7435,25 @@
         <v>1924.37410445766</v>
       </c>
       <c r="R41" t="n">
-        <v>2024.450416504493</v>
+        <v>2024.450416504494</v>
       </c>
       <c r="S41" t="n">
-        <v>2024.450416504493</v>
+        <v>2024.450416504494</v>
       </c>
       <c r="T41" t="n">
-        <v>2024.450416504493</v>
+        <v>1811.498847138508</v>
       </c>
       <c r="U41" t="n">
-        <v>2024.450416504493</v>
+        <v>1811.498847138508</v>
       </c>
       <c r="V41" t="n">
-        <v>2024.450416504493</v>
+        <v>1448.881897072334</v>
       </c>
       <c r="W41" t="n">
-        <v>1619.594961915527</v>
+        <v>1448.881897072334</v>
       </c>
       <c r="X41" t="n">
-        <v>1348.316010813927</v>
+        <v>1448.881897072334</v>
       </c>
       <c r="Y41" t="n">
         <v>1348.316010813927</v>
@@ -7487,28 +7487,28 @@
         <v>40.48900833008987</v>
       </c>
       <c r="I42" t="n">
-        <v>69.83752574967529</v>
+        <v>69.83752574967531</v>
       </c>
       <c r="J42" t="n">
         <v>150.3721007478014</v>
       </c>
       <c r="K42" t="n">
-        <v>288.0185167779768</v>
+        <v>524.6575391307625</v>
       </c>
       <c r="L42" t="n">
-        <v>473.1011097533369</v>
+        <v>709.7401321061226</v>
       </c>
       <c r="M42" t="n">
-        <v>689.083765973649</v>
+        <v>925.7227883264347</v>
       </c>
       <c r="N42" t="n">
-        <v>910.7828404276612</v>
+        <v>1147.421862780447</v>
       </c>
       <c r="O42" t="n">
-        <v>1113.594181123235</v>
+        <v>1350.23320347602</v>
       </c>
       <c r="P42" t="n">
-        <v>1276.36816219507</v>
+        <v>1513.007184547856</v>
       </c>
       <c r="Q42" t="n">
         <v>1621.817280214049</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>382.8087235961277</v>
+        <v>350.615460817998</v>
       </c>
       <c r="C43" t="n">
-        <v>210.2470120793526</v>
+        <v>350.615460817998</v>
       </c>
       <c r="D43" t="n">
-        <v>210.2470120793526</v>
+        <v>350.615460817998</v>
       </c>
       <c r="E43" t="n">
-        <v>40.48900833008987</v>
+        <v>350.615460817998</v>
       </c>
       <c r="F43" t="n">
-        <v>40.48900833008987</v>
+        <v>173.9084067797543</v>
       </c>
       <c r="G43" t="n">
-        <v>40.48900833008987</v>
+        <v>173.9084067797543</v>
       </c>
       <c r="H43" t="n">
         <v>40.48900833008987</v>
@@ -7569,22 +7569,22 @@
         <v>40.48900833008987</v>
       </c>
       <c r="J43" t="n">
-        <v>91.01381258412407</v>
+        <v>177.593497748814</v>
       </c>
       <c r="K43" t="n">
-        <v>174.041586580081</v>
+        <v>262.8711936118748</v>
       </c>
       <c r="L43" t="n">
-        <v>675.0930646649431</v>
+        <v>763.9226716967369</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.144542749805</v>
+        <v>1264.974149781599</v>
       </c>
       <c r="N43" t="n">
-        <v>1677.196020834667</v>
+        <v>1766.025627866461</v>
       </c>
       <c r="O43" t="n">
-        <v>1778.206649167151</v>
+        <v>1867.036256198945</v>
       </c>
       <c r="P43" t="n">
         <v>1953.468298862654</v>
@@ -7593,28 +7593,28 @@
         <v>2013.309365081493</v>
       </c>
       <c r="R43" t="n">
-        <v>2024.450416504493</v>
+        <v>2024.450416504494</v>
       </c>
       <c r="S43" t="n">
-        <v>1900.158240630698</v>
+        <v>2024.450416504494</v>
       </c>
       <c r="T43" t="n">
-        <v>1657.394238640832</v>
+        <v>1852.620646548594</v>
       </c>
       <c r="U43" t="n">
-        <v>1379.00100952498</v>
+        <v>1574.227417432742</v>
       </c>
       <c r="V43" t="n">
-        <v>1092.045501395411</v>
+        <v>1287.271909303173</v>
       </c>
       <c r="W43" t="n">
-        <v>820.0190969817023</v>
+        <v>1015.245504889464</v>
       </c>
       <c r="X43" t="n">
-        <v>574.6273423151148</v>
+        <v>769.8537502228769</v>
       </c>
       <c r="Y43" t="n">
-        <v>574.6273423151148</v>
+        <v>542.4340795369851</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>912.4062259883714</v>
+        <v>440.2613325084306</v>
       </c>
       <c r="C44" t="n">
-        <v>474.2637531717947</v>
+        <v>440.2613325084306</v>
       </c>
       <c r="D44" t="n">
-        <v>474.2637531717947</v>
+        <v>440.2613325084306</v>
       </c>
       <c r="E44" t="n">
-        <v>40.48900833008987</v>
+        <v>440.2613325084306</v>
       </c>
       <c r="F44" t="n">
-        <v>40.48900833008987</v>
+        <v>440.2613325084306</v>
       </c>
       <c r="G44" t="n">
         <v>40.48900833008987</v>
@@ -7645,7 +7645,7 @@
         <v>40.48900833008987</v>
       </c>
       <c r="I44" t="n">
-        <v>101.5007987431914</v>
+        <v>101.5007987431912</v>
       </c>
       <c r="J44" t="n">
         <v>236.7182287805614</v>
@@ -7678,22 +7678,22 @@
         <v>2024.450416504493</v>
       </c>
       <c r="T44" t="n">
-        <v>2024.450416504493</v>
+        <v>1875.112122971029</v>
       </c>
       <c r="U44" t="n">
-        <v>2024.450416504493</v>
+        <v>1616.019860863918</v>
       </c>
       <c r="V44" t="n">
-        <v>2024.450416504493</v>
+        <v>1253.402910797744</v>
       </c>
       <c r="W44" t="n">
-        <v>2024.450416504493</v>
+        <v>848.5474562087772</v>
       </c>
       <c r="X44" t="n">
-        <v>1605.307953083804</v>
+        <v>848.5474562087772</v>
       </c>
       <c r="Y44" t="n">
-        <v>1338.705796473279</v>
+        <v>440.2613325084306</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>40.48900833008987</v>
       </c>
       <c r="I45" t="n">
-        <v>95.90119891013289</v>
+        <v>69.83752574967529</v>
       </c>
       <c r="J45" t="n">
-        <v>269.8383450062477</v>
+        <v>150.3721007478014</v>
       </c>
       <c r="K45" t="n">
-        <v>407.4847610364231</v>
+        <v>524.6575391307628</v>
       </c>
       <c r="L45" t="n">
-        <v>592.5673540117831</v>
+        <v>709.7401321061228</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5500102320952</v>
+        <v>925.722788326435</v>
       </c>
       <c r="N45" t="n">
-        <v>1030.249084686108</v>
+        <v>1147.421862780447</v>
       </c>
       <c r="O45" t="n">
-        <v>1233.060425381681</v>
+        <v>1350.23320347602</v>
       </c>
       <c r="P45" t="n">
-        <v>1395.834406453517</v>
+        <v>1513.007184547856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1504.64450211971</v>
+        <v>1621.817280214049</v>
       </c>
       <c r="R45" t="n">
         <v>1674.741816849928</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1090.407820598015</v>
+        <v>797.0993878643269</v>
       </c>
       <c r="C46" t="n">
-        <v>917.8461090812401</v>
+        <v>797.0993878643269</v>
       </c>
       <c r="D46" t="n">
-        <v>751.9681162827628</v>
+        <v>631.2213950658496</v>
       </c>
       <c r="E46" t="n">
-        <v>582.2101125335</v>
+        <v>461.4633913165869</v>
       </c>
       <c r="F46" t="n">
-        <v>405.5030584952563</v>
+        <v>284.756337278343</v>
       </c>
       <c r="G46" t="n">
-        <v>240.6409300902002</v>
+        <v>173.9084067797542</v>
       </c>
       <c r="H46" t="n">
-        <v>107.2215316405359</v>
+        <v>40.48900833008987</v>
       </c>
       <c r="I46" t="n">
         <v>40.48900833008987</v>
       </c>
       <c r="J46" t="n">
-        <v>177.5934977488139</v>
+        <v>91.01381258412407</v>
       </c>
       <c r="K46" t="n">
-        <v>535.3797263159064</v>
+        <v>174.041586580081</v>
       </c>
       <c r="L46" t="n">
-        <v>641.6266915686356</v>
+        <v>363.8818219443579</v>
       </c>
       <c r="M46" t="n">
-        <v>753.6492195038692</v>
+        <v>864.93330002922</v>
       </c>
       <c r="N46" t="n">
-        <v>863.0081021074642</v>
+        <v>1365.984778114082</v>
       </c>
       <c r="O46" t="n">
-        <v>1351.33658736427</v>
+        <v>1867.036256198944</v>
       </c>
       <c r="P46" t="n">
-        <v>1785.275523998322</v>
+        <v>1953.468298862654</v>
       </c>
       <c r="Q46" t="n">
         <v>2013.309365081493</v>
@@ -7833,25 +7833,25 @@
         <v>2024.450416504493</v>
       </c>
       <c r="S46" t="n">
-        <v>1877.916083920635</v>
+        <v>2024.450416504493</v>
       </c>
       <c r="T46" t="n">
-        <v>1755.037864669482</v>
+        <v>1781.686414514627</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.037864669482</v>
+        <v>1503.293185398775</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.037864669482</v>
+        <v>1216.337677269206</v>
       </c>
       <c r="W46" t="n">
-        <v>1755.037864669482</v>
+        <v>1216.337677269206</v>
       </c>
       <c r="X46" t="n">
-        <v>1509.646110002894</v>
+        <v>1216.337677269206</v>
       </c>
       <c r="Y46" t="n">
-        <v>1282.226439317002</v>
+        <v>988.9180065833141</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>385.2554146752023</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,11 +8218,11 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8300,7 +8300,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,22 +8373,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>33.39342414375216</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8534,25 +8534,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N9" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>286.4516031415236</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.79625325203347</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>117.767506017929</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>188.1762207334397</v>
+        <v>275.6304481725197</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>332.1506239440507</v>
+        <v>327.2478563935583</v>
       </c>
       <c r="R15" t="n">
-        <v>113.4535739589407</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.20135692551347</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>188.1762207334391</v>
       </c>
       <c r="M16" t="n">
-        <v>329.430193271091</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>331.685886731747</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>338.7555601389258</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>385.9244804859804</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>257.0444868900286</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>35.02367012165428</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>437.0826055845987</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>239.0293155078644</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>239.0293155078651</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>75.44793606068751</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>187.856569326088</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>397.354193713817</v>
       </c>
       <c r="P20" t="n">
-        <v>32.45507625886262</v>
+        <v>245.6147736621901</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>239.0293155078659</v>
+        <v>94.34603141210965</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645587</v>
@@ -9576,10 +9576,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>327.9904682865736</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.44793606068743</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>414.9112509487362</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>487.7592863446524</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>479.1709403198365</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>239.029315507865</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.3460314121096</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>48.39213073266055</v>
+        <v>135.8463581717407</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>527.2790272170964</v>
+        <v>356.416335547342</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>239.029315507865</v>
+        <v>94.3460314121096</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>39.43793850999764</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10041,7 +10041,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>152.545992258049</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>356.416335547342</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>527.2790272170964</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>120.6729739984309</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.3460314121096</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10278,7 +10278,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>65.09176481896877</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>209.3296302921517</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>244.0485592789819</v>
+        <v>518.8993521906186</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>8.379675026477798</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>94.34603141211012</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.3460314121096</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>135.8463581717407</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>65.09176481896839</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>244.0485592789814</v>
       </c>
       <c r="Q35" t="n">
-        <v>527.2790272170964</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>239.0293155078645</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.3460314121096</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,13 +10746,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>229.5175035670129</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>65.0917648189683</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10761,7 +10761,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10825,7 +10825,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>356.4163355473426</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>527.2790272170964</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>239.0293155078645</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>239.0293155078646</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>23.40087046245162</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645587</v>
@@ -10998,10 +10998,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>209.3296302921513</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>239.0293155078645</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>239.0293155078646</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2.272648350609984</v>
       </c>
       <c r="L43" t="n">
-        <v>398.7924372041746</v>
+        <v>398.7924372041747</v>
       </c>
       <c r="M43" t="n">
-        <v>392.9585355046752</v>
+        <v>392.9585355046754</v>
       </c>
       <c r="N43" t="n">
-        <v>395.6490863447143</v>
+        <v>395.6490863447141</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>89.72687578969048</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.34603141210985</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>239.0293155078647</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>84.43764657732089</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>392.9585355046752</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>395.6490863447143</v>
       </c>
       <c r="O46" t="n">
-        <v>391.2301585094168</v>
+        <v>404.0816664165441</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.95695953404089</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22612,7 +22612,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>38.26486251750879</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22704,22 +22704,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>160.9948169995733</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -22758,10 +22758,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>43.48881512960193</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>430.9697674053788</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -22795,7 +22795,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22843,16 +22843,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>329.7284710573623</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22944,22 +22944,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>11.73605316301666</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>96.68318537724036</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22995,19 +22995,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419.3917889829561</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -23032,7 +23032,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -23041,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>98.19452627478489</v>
       </c>
     </row>
     <row r="9">
@@ -23181,19 +23181,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>116.4038470069912</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23232,22 +23232,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>127.0419408243798</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>373.1912020763808</v>
+        <v>9.465190568306866</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23275,7 +23275,7 @@
         <v>396.0346945768795</v>
       </c>
       <c r="H11" t="n">
-        <v>272.4217836655541</v>
+        <v>214.1112203935704</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.07140607624191</v>
+        <v>52.07140607624193</v>
       </c>
       <c r="T11" t="n">
         <v>211.9606135828359</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>62.15465266023396</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -23469,7 +23469,7 @@
         <v>147.1022126635735</v>
       </c>
       <c r="T13" t="n">
-        <v>81.21899079042294</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23503,13 +23503,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.141139873183533</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>396.0346945768795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>272.4217836655541</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.07140607624191</v>
+        <v>52.07140607624194</v>
       </c>
       <c r="T14" t="n">
         <v>211.9606135828359</v>
       </c>
       <c r="U14" t="n">
-        <v>208.9593600284212</v>
+        <v>232.9962149766047</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.3301761740106</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>133.122498409159</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.57375468953282</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.1022126635735</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>81.2189907904234</v>
+        <v>200.4577560794435</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.615660591221</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,13 +23734,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>152.1859072537673</v>
+        <v>269.1709733115816</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.14452224740141</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.8220536723258</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5013394860404</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>154.3009231076347</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.2135071210055</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>127.6139976968412</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>280.6423291947</v>
+        <v>380.5462802607699</v>
       </c>
       <c r="G20" t="n">
-        <v>395.7746009365573</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>269.7580996716051</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.14452224740141</v>
+        <v>46.1445222474014</v>
       </c>
       <c r="T20" t="n">
-        <v>210.8220536723258</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5013394860404</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3640276861296</v>
+        <v>163.2135071210055</v>
       </c>
       <c r="H22" t="n">
         <v>132.0852044651677</v>
       </c>
       <c r="I22" t="n">
-        <v>66.06519807734153</v>
+        <v>22.21571864246695</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.7746009365573</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>269.7580996716051</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.14452224740141</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>210.8220536723258</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5013394860404</v>
+        <v>133.6794577712772</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>26.48857980026048</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>222.0345411584773</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -24454,7 +24454,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.14452224740141</v>
+        <v>46.1445222474014</v>
       </c>
       <c r="T26" t="n">
-        <v>210.8220536723258</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>19.85020399455402</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>222.0345411584773</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.7746009365573</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>269.7580996716051</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.14452224740141</v>
+        <v>46.1445222474014</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>54.87812701129502</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>268.1790634058787</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>255.1882124766199</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.8220536723258</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5013394860404</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.7746009365573</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>269.7580996716051</v>
+        <v>76.28861021769438</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>46.1445222474014</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>256.5013394860404</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.7245722359994</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>286.9890727078064</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>97.19130206121906</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>269.7580996716051</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>46.1445222474014</v>
       </c>
       <c r="T41" t="n">
-        <v>210.8220536723258</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.5013394860404</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>146.3848771958985</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>304.6430350675196</v>
       </c>
     </row>
     <row r="42">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.2135071210055</v>
       </c>
       <c r="H43" t="n">
-        <v>132.0852044651677</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>66.06519807734153</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>22.01973514296306</v>
+        <v>145.0689892580201</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>70.22488971362708</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.7746009365573</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>269.7580996716051</v>
@@ -25918,22 +25918,22 @@
         <v>46.14452224740141</v>
       </c>
       <c r="T44" t="n">
-        <v>210.8220536723258</v>
+        <v>62.97714307419614</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5013394860404</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>140.2671274189235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>53.47405592740257</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>66.06519807734153</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>145.0689892580201</v>
       </c>
       <c r="T46" t="n">
-        <v>118.6869249113259</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6092968246934</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>343674.9295071369</v>
+        <v>343674.929507137</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>305473.3995704313</v>
+        <v>305473.3995704312</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>305473.3995704312</v>
+        <v>305473.3995704311</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>438315.7606833187</v>
+        <v>438315.7606833185</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>438315.7606833188</v>
+        <v>438315.7606833185</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>485340.6916033575</v>
+        <v>485340.6916033576</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>485340.6916033575</v>
+        <v>485340.6916033576</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>485340.6916033575</v>
+        <v>485340.6916033576</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>485340.6916033576</v>
+        <v>485340.6916033575</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>344984.9366798798</v>
+        <v>344984.9366798797</v>
       </c>
     </row>
     <row r="16">
@@ -26322,7 +26322,7 @@
         <v>132222.5713182809</v>
       </c>
       <c r="E2" t="n">
-        <v>135286.79189025</v>
+        <v>135286.7918902499</v>
       </c>
       <c r="F2" t="n">
         <v>135286.7918902499</v>
@@ -26343,7 +26343,7 @@
         <v>207911.3313299503</v>
       </c>
       <c r="L2" t="n">
-        <v>207911.3313299503</v>
+        <v>207911.3313299502</v>
       </c>
       <c r="M2" t="n">
         <v>207911.3313299503</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>269624.5963308968</v>
+        <v>269624.5963308966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>117233.4237081119</v>
+        <v>117233.4237081121</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>21756.7910742192</v>
+        <v>21756.79107421926</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55557.24815388156</v>
+        <v>55557.24815388155</v>
       </c>
       <c r="C4" t="n">
         <v>55557.24815388155</v>
@@ -26426,37 +26426,37 @@
         <v>55557.24815388155</v>
       </c>
       <c r="E4" t="n">
-        <v>10668.58484281859</v>
+        <v>10668.5848428186</v>
       </c>
       <c r="F4" t="n">
-        <v>10668.58484281859</v>
+        <v>10668.5848428186</v>
       </c>
       <c r="G4" t="n">
-        <v>24680.75930844862</v>
+        <v>24680.75930844857</v>
       </c>
       <c r="H4" t="n">
-        <v>24680.75930844863</v>
+        <v>24680.75930844858</v>
       </c>
       <c r="I4" t="n">
-        <v>32282.63984215652</v>
+        <v>32282.6398421565</v>
       </c>
       <c r="J4" t="n">
         <v>32282.6398421565</v>
       </c>
       <c r="K4" t="n">
-        <v>32282.63984215651</v>
+        <v>32282.6398421565</v>
       </c>
       <c r="L4" t="n">
         <v>32282.6398421565</v>
       </c>
       <c r="M4" t="n">
+        <v>32282.63984215649</v>
+      </c>
+      <c r="N4" t="n">
         <v>32282.6398421565</v>
       </c>
-      <c r="N4" t="n">
-        <v>32282.63984215651</v>
-      </c>
       <c r="O4" t="n">
-        <v>9593.235301383616</v>
+        <v>9593.235301383618</v>
       </c>
       <c r="P4" t="n">
         <v>9593.235301383618</v>
@@ -26478,19 +26478,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
-        <v>33113.33731766298</v>
+        <v>33113.33731766295</v>
       </c>
       <c r="F5" t="n">
-        <v>33113.33731766297</v>
+        <v>33113.33731766295</v>
       </c>
       <c r="G5" t="n">
-        <v>49371.07240250268</v>
+        <v>49371.07240250266</v>
       </c>
       <c r="H5" t="n">
-        <v>49371.07240250268</v>
+        <v>49371.07240250266</v>
       </c>
       <c r="I5" t="n">
-        <v>54345.53059614864</v>
+        <v>54345.53059614863</v>
       </c>
       <c r="J5" t="n">
         <v>54345.53059614863</v>
@@ -26505,7 +26505,7 @@
         <v>54345.53059614863</v>
       </c>
       <c r="N5" t="n">
-        <v>54345.53059614864</v>
+        <v>54345.53059614863</v>
       </c>
       <c r="O5" t="n">
         <v>39498.21829936576</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124950.7656325329</v>
+        <v>-125690.1222444486</v>
       </c>
       <c r="C6" t="n">
-        <v>17240.53502717699</v>
+        <v>16501.17841526131</v>
       </c>
       <c r="D6" t="n">
-        <v>17240.53502717696</v>
+        <v>16501.17841526134</v>
       </c>
       <c r="E6" t="n">
-        <v>-178119.7266011284</v>
+        <v>-178845.1549377167</v>
       </c>
       <c r="F6" t="n">
-        <v>91504.86972976837</v>
+        <v>90779.44139317983</v>
       </c>
       <c r="G6" t="n">
-        <v>-1465.896323540801</v>
+        <v>-1943.449354650899</v>
       </c>
       <c r="H6" t="n">
-        <v>115767.5273845711</v>
+        <v>115289.9743534611</v>
       </c>
       <c r="I6" t="n">
-        <v>99526.36981742593</v>
+        <v>99131.05302374512</v>
       </c>
       <c r="J6" t="n">
-        <v>10268.69554665496</v>
+        <v>9873.378752974148</v>
       </c>
       <c r="K6" t="n">
-        <v>121283.1608916451</v>
+        <v>120887.8440979644</v>
       </c>
       <c r="L6" t="n">
-        <v>121283.1608916452</v>
+        <v>120887.8440979643</v>
       </c>
       <c r="M6" t="n">
-        <v>121283.1608916452</v>
+        <v>120887.8440979644</v>
       </c>
       <c r="N6" t="n">
-        <v>121283.1608916452</v>
+        <v>120887.8440979644</v>
       </c>
       <c r="O6" t="n">
-        <v>104820.5975317337</v>
+        <v>104179.8294644281</v>
       </c>
       <c r="P6" t="n">
-        <v>104820.5975317337</v>
+        <v>104179.8294644281</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>335.6031734147081</v>
+        <v>335.6031734147079</v>
       </c>
       <c r="F3" t="n">
-        <v>335.6031734147081</v>
+        <v>335.6031734147078</v>
       </c>
       <c r="G3" t="n">
         <v>400.3014664448376</v>
@@ -26770,7 +26770,7 @@
         <v>400.3014664448376</v>
       </c>
       <c r="M3" t="n">
-        <v>400.3014664448376</v>
+        <v>400.3014664448377</v>
       </c>
       <c r="N3" t="n">
         <v>400.3014664448376</v>
@@ -26798,19 +26798,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201041</v>
       </c>
       <c r="F4" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201041</v>
       </c>
       <c r="G4" t="n">
-        <v>668.4950729277174</v>
+        <v>668.495072927717</v>
       </c>
       <c r="H4" t="n">
-        <v>668.4950729277174</v>
+        <v>668.495072927717</v>
       </c>
       <c r="I4" t="n">
-        <v>750.3118195337365</v>
+        <v>750.3118195337364</v>
       </c>
       <c r="J4" t="n">
         <v>750.3118195337364</v>
@@ -26825,7 +26825,7 @@
         <v>750.3118195337364</v>
       </c>
       <c r="N4" t="n">
-        <v>750.3118195337365</v>
+        <v>750.3118195337364</v>
       </c>
       <c r="O4" t="n">
         <v>506.1126041261234</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>335.6031734147081</v>
+        <v>335.6031734147079</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>64.69829303012943</v>
+        <v>64.69829303012972</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>81.81674660601909</v>
+        <v>81.81674660601931</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.349158486089278</v>
+        <v>1.349158486089277</v>
       </c>
       <c r="H11" t="n">
-        <v>13.81706934566182</v>
+        <v>13.81706934566181</v>
       </c>
       <c r="I11" t="n">
-        <v>52.01343253495693</v>
+        <v>52.0134325349569</v>
       </c>
       <c r="J11" t="n">
         <v>114.5081400587199</v>
       </c>
       <c r="K11" t="n">
-        <v>171.6180187748791</v>
+        <v>171.618018774879</v>
       </c>
       <c r="L11" t="n">
-        <v>212.9073277935339</v>
+        <v>212.9073277935338</v>
       </c>
       <c r="M11" t="n">
-        <v>236.9004250205241</v>
+        <v>236.9004250205239</v>
       </c>
       <c r="N11" t="n">
-        <v>240.7337215691253</v>
+        <v>240.7337215691251</v>
       </c>
       <c r="O11" t="n">
-        <v>227.318026873075</v>
+        <v>227.3180268730748</v>
       </c>
       <c r="P11" t="n">
-        <v>194.0106767477459</v>
+        <v>194.0106767477458</v>
       </c>
       <c r="Q11" t="n">
-        <v>145.6939384646736</v>
+        <v>145.6939384646735</v>
       </c>
       <c r="R11" t="n">
-        <v>84.74907675180567</v>
+        <v>84.74907675180562</v>
       </c>
       <c r="S11" t="n">
-        <v>30.74394900175945</v>
+        <v>30.74394900175943</v>
       </c>
       <c r="T11" t="n">
-        <v>5.905941272855816</v>
+        <v>5.905941272855813</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1079326788871422</v>
+        <v>0.1079326788871421</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7218634296089949</v>
+        <v>0.7218634296089944</v>
       </c>
       <c r="H12" t="n">
-        <v>6.971681017539504</v>
+        <v>6.971681017539499</v>
       </c>
       <c r="I12" t="n">
-        <v>24.85363123873075</v>
+        <v>24.85363123873073</v>
       </c>
       <c r="J12" t="n">
-        <v>68.20026375968141</v>
+        <v>68.20026375968136</v>
       </c>
       <c r="K12" t="n">
-        <v>116.5651135434841</v>
+        <v>116.565113543484</v>
       </c>
       <c r="L12" t="n">
-        <v>156.7361801876899</v>
+        <v>156.7361801876898</v>
       </c>
       <c r="M12" t="n">
-        <v>182.9037295110159</v>
+        <v>182.9037295110158</v>
       </c>
       <c r="N12" t="n">
-        <v>187.7446469841394</v>
+        <v>187.7446469841393</v>
       </c>
       <c r="O12" t="n">
-        <v>171.7496730964875</v>
+        <v>171.7496730964874</v>
       </c>
       <c r="P12" t="n">
-        <v>137.8442543785808</v>
+        <v>137.8442543785807</v>
       </c>
       <c r="Q12" t="n">
-        <v>92.14523357605346</v>
+        <v>92.1452335760534</v>
       </c>
       <c r="R12" t="n">
-        <v>44.81885398923217</v>
+        <v>44.81885398923214</v>
       </c>
       <c r="S12" t="n">
-        <v>13.4082965982197</v>
+        <v>13.40829659821969</v>
       </c>
       <c r="T12" t="n">
-        <v>2.909616192152044</v>
+        <v>2.909616192152042</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04749101510585494</v>
+        <v>0.04749101510585491</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6051860504199654</v>
+        <v>0.605186050419965</v>
       </c>
       <c r="H13" t="n">
-        <v>5.380654157370242</v>
+        <v>5.380654157370238</v>
       </c>
       <c r="I13" t="n">
-        <v>18.1995950435386</v>
+        <v>18.19959504353859</v>
       </c>
       <c r="J13" t="n">
-        <v>42.78665376469155</v>
+        <v>42.78665376469152</v>
       </c>
       <c r="K13" t="n">
-        <v>70.31161567606506</v>
+        <v>70.311615676065</v>
       </c>
       <c r="L13" t="n">
-        <v>89.97466062334651</v>
+        <v>89.97466062334645</v>
       </c>
       <c r="M13" t="n">
-        <v>94.86566424901329</v>
+        <v>94.86566424901322</v>
       </c>
       <c r="N13" t="n">
-        <v>92.60997078835713</v>
+        <v>92.60997078835707</v>
       </c>
       <c r="O13" t="n">
-        <v>85.54029738117842</v>
+        <v>85.54029738117836</v>
       </c>
       <c r="P13" t="n">
-        <v>73.19450195261106</v>
+        <v>73.19450195261101</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.67607918562093</v>
+        <v>50.67607918562089</v>
       </c>
       <c r="R13" t="n">
-        <v>27.21136550342862</v>
+        <v>27.2113655034286</v>
       </c>
       <c r="S13" t="n">
-        <v>10.54674235140976</v>
+        <v>10.54674235140975</v>
       </c>
       <c r="T13" t="n">
-        <v>2.585794942703488</v>
+        <v>2.585794942703486</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03301014820472543</v>
+        <v>0.0330101482047254</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.349158486089278</v>
+        <v>1.349158486089277</v>
       </c>
       <c r="H14" t="n">
-        <v>13.81706934566182</v>
+        <v>13.81706934566181</v>
       </c>
       <c r="I14" t="n">
-        <v>52.01343253495693</v>
+        <v>52.01343253495689</v>
       </c>
       <c r="J14" t="n">
         <v>114.5081400587199</v>
       </c>
       <c r="K14" t="n">
-        <v>171.6180187748791</v>
+        <v>171.618018774879</v>
       </c>
       <c r="L14" t="n">
-        <v>212.9073277935339</v>
+        <v>212.9073277935337</v>
       </c>
       <c r="M14" t="n">
-        <v>236.900425020524</v>
+        <v>236.9004250205239</v>
       </c>
       <c r="N14" t="n">
-        <v>240.7337215691252</v>
+        <v>240.7337215691251</v>
       </c>
       <c r="O14" t="n">
-        <v>227.318026873075</v>
+        <v>227.3180268730748</v>
       </c>
       <c r="P14" t="n">
-        <v>194.0106767477459</v>
+        <v>194.0106767477457</v>
       </c>
       <c r="Q14" t="n">
-        <v>145.6939384646736</v>
+        <v>145.6939384646735</v>
       </c>
       <c r="R14" t="n">
-        <v>84.74907675180566</v>
+        <v>84.7490767518056</v>
       </c>
       <c r="S14" t="n">
-        <v>30.74394900175945</v>
+        <v>30.74394900175943</v>
       </c>
       <c r="T14" t="n">
-        <v>5.905941272855816</v>
+        <v>5.905941272855812</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1079326788871422</v>
+        <v>0.1079326788871421</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7218634296089947</v>
+        <v>0.7218634296089943</v>
       </c>
       <c r="H15" t="n">
-        <v>6.971681017539503</v>
+        <v>6.971681017539498</v>
       </c>
       <c r="I15" t="n">
-        <v>24.85363123873074</v>
+        <v>24.85363123873072</v>
       </c>
       <c r="J15" t="n">
-        <v>68.20026375968139</v>
+        <v>68.20026375968135</v>
       </c>
       <c r="K15" t="n">
         <v>116.565113543484</v>
       </c>
       <c r="L15" t="n">
-        <v>156.7361801876899</v>
+        <v>156.7361801876897</v>
       </c>
       <c r="M15" t="n">
-        <v>182.9037295110159</v>
+        <v>182.9037295110157</v>
       </c>
       <c r="N15" t="n">
-        <v>187.7446469841394</v>
+        <v>187.7446469841393</v>
       </c>
       <c r="O15" t="n">
-        <v>171.7496730964874</v>
+        <v>171.7496730964873</v>
       </c>
       <c r="P15" t="n">
-        <v>137.8442543785808</v>
+        <v>137.8442543785807</v>
       </c>
       <c r="Q15" t="n">
-        <v>92.14523357605344</v>
+        <v>92.14523357605337</v>
       </c>
       <c r="R15" t="n">
-        <v>44.81885398923217</v>
+        <v>44.81885398923213</v>
       </c>
       <c r="S15" t="n">
-        <v>13.4082965982197</v>
+        <v>13.40829659821969</v>
       </c>
       <c r="T15" t="n">
-        <v>2.909616192152043</v>
+        <v>2.909616192152042</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04749101510585493</v>
+        <v>0.04749101510585491</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6051860504199653</v>
+        <v>0.6051860504199649</v>
       </c>
       <c r="H16" t="n">
-        <v>5.380654157370241</v>
+        <v>5.380654157370238</v>
       </c>
       <c r="I16" t="n">
-        <v>18.1995950435386</v>
+        <v>18.19959504353859</v>
       </c>
       <c r="J16" t="n">
-        <v>42.78665376469154</v>
+        <v>42.78665376469151</v>
       </c>
       <c r="K16" t="n">
-        <v>70.31161567606505</v>
+        <v>70.311615676065</v>
       </c>
       <c r="L16" t="n">
-        <v>89.97466062334649</v>
+        <v>89.97466062334644</v>
       </c>
       <c r="M16" t="n">
-        <v>94.86566424901328</v>
+        <v>94.86566424901321</v>
       </c>
       <c r="N16" t="n">
-        <v>92.60997078835712</v>
+        <v>92.60997078835706</v>
       </c>
       <c r="O16" t="n">
-        <v>85.54029738117841</v>
+        <v>85.54029738117835</v>
       </c>
       <c r="P16" t="n">
-        <v>73.19450195261105</v>
+        <v>73.19450195261099</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.67607918562091</v>
+        <v>50.67607918562089</v>
       </c>
       <c r="R16" t="n">
-        <v>27.21136550342861</v>
+        <v>27.2113655034286</v>
       </c>
       <c r="S16" t="n">
         <v>10.54674235140975</v>
       </c>
       <c r="T16" t="n">
-        <v>2.585794942703488</v>
+        <v>2.585794942703486</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03301014820472542</v>
+        <v>0.03301014820472539</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>16.48075333961082</v>
       </c>
       <c r="I17" t="n">
-        <v>62.04069260347579</v>
+        <v>62.0406926034758</v>
       </c>
       <c r="J17" t="n">
         <v>136.5832626640102</v>
       </c>
       <c r="K17" t="n">
-        <v>204.702905175005</v>
+        <v>204.7029051750051</v>
       </c>
       <c r="L17" t="n">
         <v>253.9520549386682</v>
       </c>
       <c r="M17" t="n">
-        <v>282.570592441737</v>
+        <v>282.5705924417371</v>
       </c>
       <c r="N17" t="n">
-        <v>287.1428800459034</v>
+        <v>287.1428800459035</v>
       </c>
       <c r="O17" t="n">
-        <v>271.1408792139</v>
+        <v>271.1408792139001</v>
       </c>
       <c r="P17" t="n">
         <v>231.4124673431184</v>
       </c>
       <c r="Q17" t="n">
-        <v>173.7811255660098</v>
+        <v>173.7811255660099</v>
       </c>
       <c r="R17" t="n">
         <v>101.0871838856906</v>
       </c>
       <c r="S17" t="n">
-        <v>36.67083283059995</v>
+        <v>36.67083283059996</v>
       </c>
       <c r="T17" t="n">
-        <v>7.044501183365933</v>
+        <v>7.044501183365934</v>
       </c>
       <c r="U17" t="n">
         <v>0.1287401701129125</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8610257957492733</v>
+        <v>0.8610257957492734</v>
       </c>
       <c r="H18" t="n">
-        <v>8.315696501052193</v>
+        <v>8.315696501052194</v>
       </c>
       <c r="I18" t="n">
-        <v>29.64496709049033</v>
+        <v>29.64496709049034</v>
       </c>
       <c r="J18" t="n">
         <v>81.34805555366272</v>
@@ -32320,34 +32320,34 @@
         <v>139.036783868864</v>
       </c>
       <c r="L18" t="n">
-        <v>186.9521141165253</v>
+        <v>186.9521141165254</v>
       </c>
       <c r="M18" t="n">
-        <v>218.1642992124364</v>
+        <v>218.1642992124365</v>
       </c>
       <c r="N18" t="n">
-        <v>223.9384590444568</v>
+        <v>223.9384590444569</v>
       </c>
       <c r="O18" t="n">
         <v>204.8599400965387</v>
       </c>
       <c r="P18" t="n">
-        <v>164.4181626988239</v>
+        <v>164.418162698824</v>
       </c>
       <c r="Q18" t="n">
         <v>109.909187541609</v>
       </c>
       <c r="R18" t="n">
-        <v>53.45912791502946</v>
+        <v>53.45912791502947</v>
       </c>
       <c r="S18" t="n">
         <v>15.99317651314987</v>
       </c>
       <c r="T18" t="n">
-        <v>3.470538185498166</v>
+        <v>3.470538185498167</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05664643393087326</v>
+        <v>0.05664643393087327</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7218551034251168</v>
+        <v>0.7218551034251169</v>
       </c>
       <c r="H19" t="n">
-        <v>6.417948101361498</v>
+        <v>6.417948101361499</v>
       </c>
       <c r="I19" t="n">
         <v>21.70815165572989</v>
@@ -32411,22 +32411,22 @@
         <v>102.0309377095793</v>
       </c>
       <c r="P19" t="n">
-        <v>87.30509359970682</v>
+        <v>87.30509359970684</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.44552143317047</v>
+        <v>60.44552143317048</v>
       </c>
       <c r="R19" t="n">
-        <v>32.45723037764206</v>
+        <v>32.45723037764207</v>
       </c>
       <c r="S19" t="n">
         <v>12.57996575696317</v>
       </c>
       <c r="T19" t="n">
-        <v>3.084289987361862</v>
+        <v>3.084289987361863</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03937391473227914</v>
+        <v>0.03937391473227915</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,40 +32469,40 @@
         <v>16.48075333961082</v>
       </c>
       <c r="I20" t="n">
-        <v>62.04069260347579</v>
+        <v>62.0406926034758</v>
       </c>
       <c r="J20" t="n">
         <v>136.5832626640102</v>
       </c>
       <c r="K20" t="n">
-        <v>204.702905175005</v>
+        <v>204.7029051750051</v>
       </c>
       <c r="L20" t="n">
         <v>253.9520549386682</v>
       </c>
       <c r="M20" t="n">
-        <v>282.570592441737</v>
+        <v>282.5705924417371</v>
       </c>
       <c r="N20" t="n">
-        <v>287.1428800459034</v>
+        <v>287.1428800459035</v>
       </c>
       <c r="O20" t="n">
-        <v>271.1408792139</v>
+        <v>271.1408792139001</v>
       </c>
       <c r="P20" t="n">
         <v>231.4124673431184</v>
       </c>
       <c r="Q20" t="n">
-        <v>173.7811255660098</v>
+        <v>173.7811255660099</v>
       </c>
       <c r="R20" t="n">
         <v>101.0871838856906</v>
       </c>
       <c r="S20" t="n">
-        <v>36.67083283059995</v>
+        <v>36.67083283059996</v>
       </c>
       <c r="T20" t="n">
-        <v>7.044501183365933</v>
+        <v>7.044501183365934</v>
       </c>
       <c r="U20" t="n">
         <v>0.1287401701129125</v>
@@ -32542,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8610257957492733</v>
+        <v>0.8610257957492734</v>
       </c>
       <c r="H21" t="n">
-        <v>8.315696501052193</v>
+        <v>8.315696501052194</v>
       </c>
       <c r="I21" t="n">
-        <v>29.64496709049033</v>
+        <v>29.64496709049034</v>
       </c>
       <c r="J21" t="n">
         <v>81.34805555366272</v>
@@ -32557,34 +32557,34 @@
         <v>139.036783868864</v>
       </c>
       <c r="L21" t="n">
-        <v>186.9521141165253</v>
+        <v>186.9521141165254</v>
       </c>
       <c r="M21" t="n">
-        <v>218.1642992124364</v>
+        <v>218.1642992124365</v>
       </c>
       <c r="N21" t="n">
-        <v>223.9384590444568</v>
+        <v>223.9384590444569</v>
       </c>
       <c r="O21" t="n">
         <v>204.8599400965387</v>
       </c>
       <c r="P21" t="n">
-        <v>164.4181626988239</v>
+        <v>164.418162698824</v>
       </c>
       <c r="Q21" t="n">
         <v>109.909187541609</v>
       </c>
       <c r="R21" t="n">
-        <v>53.45912791502946</v>
+        <v>53.45912791502947</v>
       </c>
       <c r="S21" t="n">
         <v>15.99317651314987</v>
       </c>
       <c r="T21" t="n">
-        <v>3.470538185498166</v>
+        <v>3.470538185498167</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05664643393087326</v>
+        <v>0.05664643393087327</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7218551034251168</v>
+        <v>0.7218551034251169</v>
       </c>
       <c r="H22" t="n">
-        <v>6.417948101361498</v>
+        <v>6.417948101361499</v>
       </c>
       <c r="I22" t="n">
         <v>21.70815165572989</v>
@@ -32648,22 +32648,22 @@
         <v>102.0309377095793</v>
       </c>
       <c r="P22" t="n">
-        <v>87.30509359970682</v>
+        <v>87.30509359970684</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.44552143317047</v>
+        <v>60.44552143317048</v>
       </c>
       <c r="R22" t="n">
-        <v>32.45723037764206</v>
+        <v>32.45723037764207</v>
       </c>
       <c r="S22" t="n">
         <v>12.57996575696317</v>
       </c>
       <c r="T22" t="n">
-        <v>3.084289987361862</v>
+        <v>3.084289987361863</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03937391473227914</v>
+        <v>0.03937391473227915</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,40 +32706,40 @@
         <v>16.48075333961082</v>
       </c>
       <c r="I23" t="n">
-        <v>62.04069260347579</v>
+        <v>62.0406926034758</v>
       </c>
       <c r="J23" t="n">
         <v>136.5832626640102</v>
       </c>
       <c r="K23" t="n">
-        <v>204.702905175005</v>
+        <v>204.7029051750051</v>
       </c>
       <c r="L23" t="n">
         <v>253.9520549386682</v>
       </c>
       <c r="M23" t="n">
-        <v>282.570592441737</v>
+        <v>282.5705924417371</v>
       </c>
       <c r="N23" t="n">
-        <v>287.1428800459034</v>
+        <v>287.1428800459035</v>
       </c>
       <c r="O23" t="n">
-        <v>271.1408792139</v>
+        <v>271.1408792139001</v>
       </c>
       <c r="P23" t="n">
         <v>231.4124673431184</v>
       </c>
       <c r="Q23" t="n">
-        <v>173.7811255660098</v>
+        <v>173.7811255660099</v>
       </c>
       <c r="R23" t="n">
         <v>101.0871838856906</v>
       </c>
       <c r="S23" t="n">
-        <v>36.67083283059995</v>
+        <v>36.67083283059996</v>
       </c>
       <c r="T23" t="n">
-        <v>7.044501183365933</v>
+        <v>7.044501183365934</v>
       </c>
       <c r="U23" t="n">
         <v>0.1287401701129125</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8610257957492733</v>
+        <v>0.8610257957492734</v>
       </c>
       <c r="H24" t="n">
-        <v>8.315696501052193</v>
+        <v>8.315696501052194</v>
       </c>
       <c r="I24" t="n">
-        <v>29.64496709049033</v>
+        <v>29.64496709049034</v>
       </c>
       <c r="J24" t="n">
         <v>81.34805555366272</v>
@@ -32794,34 +32794,34 @@
         <v>139.036783868864</v>
       </c>
       <c r="L24" t="n">
-        <v>186.9521141165253</v>
+        <v>186.9521141165254</v>
       </c>
       <c r="M24" t="n">
-        <v>218.1642992124364</v>
+        <v>218.1642992124365</v>
       </c>
       <c r="N24" t="n">
-        <v>223.9384590444568</v>
+        <v>223.9384590444569</v>
       </c>
       <c r="O24" t="n">
         <v>204.8599400965387</v>
       </c>
       <c r="P24" t="n">
-        <v>164.4181626988239</v>
+        <v>164.418162698824</v>
       </c>
       <c r="Q24" t="n">
         <v>109.909187541609</v>
       </c>
       <c r="R24" t="n">
-        <v>53.45912791502946</v>
+        <v>53.45912791502947</v>
       </c>
       <c r="S24" t="n">
         <v>15.99317651314987</v>
       </c>
       <c r="T24" t="n">
-        <v>3.470538185498166</v>
+        <v>3.470538185498167</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05664643393087326</v>
+        <v>0.05664643393087327</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7218551034251168</v>
+        <v>0.7218551034251169</v>
       </c>
       <c r="H25" t="n">
-        <v>6.417948101361498</v>
+        <v>6.417948101361499</v>
       </c>
       <c r="I25" t="n">
         <v>21.70815165572989</v>
@@ -32885,22 +32885,22 @@
         <v>102.0309377095793</v>
       </c>
       <c r="P25" t="n">
-        <v>87.30509359970682</v>
+        <v>87.30509359970684</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.44552143317047</v>
+        <v>60.44552143317048</v>
       </c>
       <c r="R25" t="n">
-        <v>32.45723037764206</v>
+        <v>32.45723037764207</v>
       </c>
       <c r="S25" t="n">
         <v>12.57996575696317</v>
       </c>
       <c r="T25" t="n">
-        <v>3.084289987361862</v>
+        <v>3.084289987361863</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03937391473227914</v>
+        <v>0.03937391473227915</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,40 +32943,40 @@
         <v>16.48075333961082</v>
       </c>
       <c r="I26" t="n">
-        <v>62.04069260347579</v>
+        <v>62.0406926034758</v>
       </c>
       <c r="J26" t="n">
         <v>136.5832626640102</v>
       </c>
       <c r="K26" t="n">
-        <v>204.702905175005</v>
+        <v>204.7029051750051</v>
       </c>
       <c r="L26" t="n">
         <v>253.9520549386682</v>
       </c>
       <c r="M26" t="n">
-        <v>282.570592441737</v>
+        <v>282.5705924417371</v>
       </c>
       <c r="N26" t="n">
-        <v>287.1428800459034</v>
+        <v>287.1428800459035</v>
       </c>
       <c r="O26" t="n">
-        <v>271.1408792139</v>
+        <v>271.1408792139001</v>
       </c>
       <c r="P26" t="n">
         <v>231.4124673431184</v>
       </c>
       <c r="Q26" t="n">
-        <v>173.7811255660098</v>
+        <v>173.7811255660099</v>
       </c>
       <c r="R26" t="n">
         <v>101.0871838856906</v>
       </c>
       <c r="S26" t="n">
-        <v>36.67083283059995</v>
+        <v>36.67083283059996</v>
       </c>
       <c r="T26" t="n">
-        <v>7.044501183365933</v>
+        <v>7.044501183365934</v>
       </c>
       <c r="U26" t="n">
         <v>0.1287401701129125</v>
@@ -33016,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8610257957492733</v>
+        <v>0.8610257957492734</v>
       </c>
       <c r="H27" t="n">
-        <v>8.315696501052193</v>
+        <v>8.315696501052194</v>
       </c>
       <c r="I27" t="n">
-        <v>29.64496709049033</v>
+        <v>29.64496709049034</v>
       </c>
       <c r="J27" t="n">
         <v>81.34805555366272</v>
@@ -33031,34 +33031,34 @@
         <v>139.036783868864</v>
       </c>
       <c r="L27" t="n">
-        <v>186.9521141165253</v>
+        <v>186.9521141165254</v>
       </c>
       <c r="M27" t="n">
-        <v>218.1642992124364</v>
+        <v>218.1642992124365</v>
       </c>
       <c r="N27" t="n">
-        <v>223.9384590444568</v>
+        <v>223.9384590444569</v>
       </c>
       <c r="O27" t="n">
         <v>204.8599400965387</v>
       </c>
       <c r="P27" t="n">
-        <v>164.4181626988239</v>
+        <v>164.418162698824</v>
       </c>
       <c r="Q27" t="n">
         <v>109.909187541609</v>
       </c>
       <c r="R27" t="n">
-        <v>53.45912791502946</v>
+        <v>53.45912791502947</v>
       </c>
       <c r="S27" t="n">
         <v>15.99317651314987</v>
       </c>
       <c r="T27" t="n">
-        <v>3.470538185498166</v>
+        <v>3.470538185498167</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05664643393087326</v>
+        <v>0.05664643393087327</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7218551034251168</v>
+        <v>0.7218551034251169</v>
       </c>
       <c r="H28" t="n">
-        <v>6.417948101361498</v>
+        <v>6.417948101361499</v>
       </c>
       <c r="I28" t="n">
         <v>21.70815165572989</v>
@@ -33122,22 +33122,22 @@
         <v>102.0309377095793</v>
       </c>
       <c r="P28" t="n">
-        <v>87.30509359970682</v>
+        <v>87.30509359970684</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.44552143317047</v>
+        <v>60.44552143317048</v>
       </c>
       <c r="R28" t="n">
-        <v>32.45723037764206</v>
+        <v>32.45723037764207</v>
       </c>
       <c r="S28" t="n">
         <v>12.57996575696317</v>
       </c>
       <c r="T28" t="n">
-        <v>3.084289987361862</v>
+        <v>3.084289987361863</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03937391473227914</v>
+        <v>0.03937391473227915</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,40 +33180,40 @@
         <v>16.48075333961082</v>
       </c>
       <c r="I29" t="n">
-        <v>62.04069260347579</v>
+        <v>62.0406926034758</v>
       </c>
       <c r="J29" t="n">
         <v>136.5832626640102</v>
       </c>
       <c r="K29" t="n">
-        <v>204.702905175005</v>
+        <v>204.7029051750051</v>
       </c>
       <c r="L29" t="n">
         <v>253.9520549386682</v>
       </c>
       <c r="M29" t="n">
-        <v>282.570592441737</v>
+        <v>282.5705924417371</v>
       </c>
       <c r="N29" t="n">
-        <v>287.1428800459034</v>
+        <v>287.1428800459035</v>
       </c>
       <c r="O29" t="n">
-        <v>271.1408792139</v>
+        <v>271.1408792139001</v>
       </c>
       <c r="P29" t="n">
         <v>231.4124673431184</v>
       </c>
       <c r="Q29" t="n">
-        <v>173.7811255660098</v>
+        <v>173.7811255660099</v>
       </c>
       <c r="R29" t="n">
         <v>101.0871838856906</v>
       </c>
       <c r="S29" t="n">
-        <v>36.67083283059995</v>
+        <v>36.67083283059996</v>
       </c>
       <c r="T29" t="n">
-        <v>7.044501183365933</v>
+        <v>7.044501183365934</v>
       </c>
       <c r="U29" t="n">
         <v>0.1287401701129125</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8610257957492733</v>
+        <v>0.8610257957492734</v>
       </c>
       <c r="H30" t="n">
-        <v>8.315696501052193</v>
+        <v>8.315696501052194</v>
       </c>
       <c r="I30" t="n">
-        <v>29.64496709049033</v>
+        <v>29.64496709049034</v>
       </c>
       <c r="J30" t="n">
         <v>81.34805555366272</v>
@@ -33268,34 +33268,34 @@
         <v>139.036783868864</v>
       </c>
       <c r="L30" t="n">
-        <v>186.9521141165253</v>
+        <v>186.9521141165254</v>
       </c>
       <c r="M30" t="n">
-        <v>218.1642992124364</v>
+        <v>218.1642992124365</v>
       </c>
       <c r="N30" t="n">
-        <v>223.9384590444568</v>
+        <v>223.9384590444569</v>
       </c>
       <c r="O30" t="n">
         <v>204.8599400965387</v>
       </c>
       <c r="P30" t="n">
-        <v>164.4181626988239</v>
+        <v>164.418162698824</v>
       </c>
       <c r="Q30" t="n">
         <v>109.909187541609</v>
       </c>
       <c r="R30" t="n">
-        <v>53.45912791502946</v>
+        <v>53.45912791502947</v>
       </c>
       <c r="S30" t="n">
         <v>15.99317651314987</v>
       </c>
       <c r="T30" t="n">
-        <v>3.470538185498166</v>
+        <v>3.470538185498167</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05664643393087326</v>
+        <v>0.05664643393087327</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7218551034251168</v>
+        <v>0.7218551034251169</v>
       </c>
       <c r="H31" t="n">
-        <v>6.417948101361498</v>
+        <v>6.417948101361499</v>
       </c>
       <c r="I31" t="n">
         <v>21.70815165572989</v>
@@ -33359,22 +33359,22 @@
         <v>102.0309377095793</v>
       </c>
       <c r="P31" t="n">
-        <v>87.30509359970682</v>
+        <v>87.30509359970684</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.44552143317047</v>
+        <v>60.44552143317048</v>
       </c>
       <c r="R31" t="n">
-        <v>32.45723037764206</v>
+        <v>32.45723037764207</v>
       </c>
       <c r="S31" t="n">
         <v>12.57996575696317</v>
       </c>
       <c r="T31" t="n">
-        <v>3.084289987361862</v>
+        <v>3.084289987361863</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03937391473227914</v>
+        <v>0.03937391473227915</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,40 +33417,40 @@
         <v>16.48075333961082</v>
       </c>
       <c r="I32" t="n">
-        <v>62.04069260347579</v>
+        <v>62.0406926034758</v>
       </c>
       <c r="J32" t="n">
         <v>136.5832626640102</v>
       </c>
       <c r="K32" t="n">
-        <v>204.702905175005</v>
+        <v>204.7029051750051</v>
       </c>
       <c r="L32" t="n">
         <v>253.9520549386682</v>
       </c>
       <c r="M32" t="n">
-        <v>282.570592441737</v>
+        <v>282.5705924417371</v>
       </c>
       <c r="N32" t="n">
-        <v>287.1428800459034</v>
+        <v>287.1428800459035</v>
       </c>
       <c r="O32" t="n">
-        <v>271.1408792139</v>
+        <v>271.1408792139001</v>
       </c>
       <c r="P32" t="n">
         <v>231.4124673431184</v>
       </c>
       <c r="Q32" t="n">
-        <v>173.7811255660098</v>
+        <v>173.7811255660099</v>
       </c>
       <c r="R32" t="n">
         <v>101.0871838856906</v>
       </c>
       <c r="S32" t="n">
-        <v>36.67083283059995</v>
+        <v>36.67083283059996</v>
       </c>
       <c r="T32" t="n">
-        <v>7.044501183365933</v>
+        <v>7.044501183365934</v>
       </c>
       <c r="U32" t="n">
         <v>0.1287401701129125</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8610257957492733</v>
+        <v>0.8610257957492734</v>
       </c>
       <c r="H33" t="n">
-        <v>8.315696501052193</v>
+        <v>8.315696501052194</v>
       </c>
       <c r="I33" t="n">
-        <v>29.64496709049033</v>
+        <v>29.64496709049034</v>
       </c>
       <c r="J33" t="n">
         <v>81.34805555366272</v>
@@ -33505,34 +33505,34 @@
         <v>139.036783868864</v>
       </c>
       <c r="L33" t="n">
-        <v>186.9521141165253</v>
+        <v>186.9521141165254</v>
       </c>
       <c r="M33" t="n">
-        <v>218.1642992124364</v>
+        <v>218.1642992124365</v>
       </c>
       <c r="N33" t="n">
-        <v>223.9384590444568</v>
+        <v>223.9384590444569</v>
       </c>
       <c r="O33" t="n">
         <v>204.8599400965387</v>
       </c>
       <c r="P33" t="n">
-        <v>164.4181626988239</v>
+        <v>164.418162698824</v>
       </c>
       <c r="Q33" t="n">
         <v>109.909187541609</v>
       </c>
       <c r="R33" t="n">
-        <v>53.45912791502946</v>
+        <v>53.45912791502947</v>
       </c>
       <c r="S33" t="n">
         <v>15.99317651314987</v>
       </c>
       <c r="T33" t="n">
-        <v>3.470538185498166</v>
+        <v>3.470538185498167</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05664643393087326</v>
+        <v>0.05664643393087327</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7218551034251168</v>
+        <v>0.7218551034251169</v>
       </c>
       <c r="H34" t="n">
-        <v>6.417948101361498</v>
+        <v>6.417948101361499</v>
       </c>
       <c r="I34" t="n">
         <v>21.70815165572989</v>
@@ -33596,22 +33596,22 @@
         <v>102.0309377095793</v>
       </c>
       <c r="P34" t="n">
-        <v>87.30509359970682</v>
+        <v>87.30509359970684</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.44552143317047</v>
+        <v>60.44552143317048</v>
       </c>
       <c r="R34" t="n">
-        <v>32.45723037764206</v>
+        <v>32.45723037764207</v>
       </c>
       <c r="S34" t="n">
         <v>12.57996575696317</v>
       </c>
       <c r="T34" t="n">
-        <v>3.084289987361862</v>
+        <v>3.084289987361863</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03937391473227914</v>
+        <v>0.03937391473227915</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.609252126411406</v>
+        <v>1.609252126411407</v>
       </c>
       <c r="H35" t="n">
         <v>16.48075333961082</v>
       </c>
       <c r="I35" t="n">
-        <v>62.0406926034758</v>
+        <v>62.04069260347581</v>
       </c>
       <c r="J35" t="n">
         <v>136.5832626640102</v>
@@ -33663,7 +33663,7 @@
         <v>204.7029051750051</v>
       </c>
       <c r="L35" t="n">
-        <v>253.9520549386682</v>
+        <v>253.9520549386683</v>
       </c>
       <c r="M35" t="n">
         <v>282.5705924417371</v>
@@ -33687,7 +33687,7 @@
         <v>36.67083283059996</v>
       </c>
       <c r="T35" t="n">
-        <v>7.044501183365934</v>
+        <v>7.044501183365935</v>
       </c>
       <c r="U35" t="n">
         <v>0.1287401701129125</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8610257957492734</v>
+        <v>0.8610257957492735</v>
       </c>
       <c r="H36" t="n">
-        <v>8.315696501052194</v>
+        <v>8.315696501052196</v>
       </c>
       <c r="I36" t="n">
         <v>29.64496709049034</v>
       </c>
       <c r="J36" t="n">
-        <v>81.34805555366272</v>
+        <v>81.34805555366273</v>
       </c>
       <c r="K36" t="n">
-        <v>139.036783868864</v>
+        <v>139.0367838688641</v>
       </c>
       <c r="L36" t="n">
         <v>186.9521141165254</v>
@@ -33751,7 +33751,7 @@
         <v>223.9384590444569</v>
       </c>
       <c r="O36" t="n">
-        <v>204.8599400965387</v>
+        <v>204.8599400965388</v>
       </c>
       <c r="P36" t="n">
         <v>164.418162698824</v>
@@ -33760,7 +33760,7 @@
         <v>109.909187541609</v>
       </c>
       <c r="R36" t="n">
-        <v>53.45912791502947</v>
+        <v>53.45912791502948</v>
       </c>
       <c r="S36" t="n">
         <v>15.99317651314987</v>
@@ -33769,7 +33769,7 @@
         <v>3.470538185498167</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05664643393087327</v>
+        <v>0.05664643393087328</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7218551034251169</v>
+        <v>0.7218551034251171</v>
       </c>
       <c r="H37" t="n">
-        <v>6.417948101361499</v>
+        <v>6.4179481013615</v>
       </c>
       <c r="I37" t="n">
         <v>21.70815165572989</v>
       </c>
       <c r="J37" t="n">
-        <v>51.03515581215576</v>
+        <v>51.03515581215577</v>
       </c>
       <c r="K37" t="n">
-        <v>83.86643837975447</v>
+        <v>83.86643837975448</v>
       </c>
       <c r="L37" t="n">
         <v>107.3201669219488</v>
@@ -33833,7 +33833,7 @@
         <v>102.0309377095793</v>
       </c>
       <c r="P37" t="n">
-        <v>87.30509359970684</v>
+        <v>87.30509359970685</v>
       </c>
       <c r="Q37" t="n">
         <v>60.44552143317048</v>
@@ -33848,7 +33848,7 @@
         <v>3.084289987361863</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03937391473227915</v>
+        <v>0.03937391473227916</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>385.2554146752023</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,11 +34938,11 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35020,7 +35020,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>33.39342414375216</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35254,25 +35254,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N9" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>51.60081105582554</v>
+        <v>51.6008110558255</v>
       </c>
       <c r="J11" t="n">
         <v>114.5081400587199</v>
       </c>
       <c r="K11" t="n">
-        <v>171.6180187748791</v>
+        <v>171.618018774879</v>
       </c>
       <c r="L11" t="n">
-        <v>212.9073277935339</v>
+        <v>212.9073277935338</v>
       </c>
       <c r="M11" t="n">
-        <v>236.9004250205242</v>
+        <v>236.9004250205238</v>
       </c>
       <c r="N11" t="n">
-        <v>240.7337215691252</v>
+        <v>240.7337215691251</v>
       </c>
       <c r="O11" t="n">
-        <v>227.318026873075</v>
+        <v>227.3180268730748</v>
       </c>
       <c r="P11" t="n">
-        <v>194.0106767477459</v>
+        <v>194.0106767477457</v>
       </c>
       <c r="Q11" t="n">
-        <v>145.6939384646737</v>
+        <v>145.6939384646735</v>
       </c>
       <c r="R11" t="n">
         <v>84.74907675180566</v>
@@ -35488,31 +35488,31 @@
         <v>51.18057382505155</v>
       </c>
       <c r="J12" t="n">
-        <v>68.20026375968141</v>
+        <v>396.0369556447444</v>
       </c>
       <c r="K12" t="n">
-        <v>116.5651135434841</v>
+        <v>116.565113543484</v>
       </c>
       <c r="L12" t="n">
-        <v>156.7361801876899</v>
+        <v>156.7361801876898</v>
       </c>
       <c r="M12" t="n">
-        <v>182.903729511016</v>
+        <v>182.9037295110157</v>
       </c>
       <c r="N12" t="n">
-        <v>187.7446469841394</v>
+        <v>187.7446469841392</v>
       </c>
       <c r="O12" t="n">
-        <v>171.7496730964875</v>
+        <v>171.7496730964874</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>137.8442543785807</v>
       </c>
       <c r="Q12" t="n">
-        <v>132.9414868280869</v>
+        <v>92.14523357605344</v>
       </c>
       <c r="R12" t="n">
-        <v>163.1751954986662</v>
+        <v>162.5863600071611</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>130.2408812037722</v>
+        <v>42.78665376469153</v>
       </c>
       <c r="K13" t="n">
         <v>347.8454081721616</v>
       </c>
       <c r="L13" t="n">
-        <v>278.1508813567862</v>
+        <v>365.6051087958661</v>
       </c>
       <c r="M13" t="n">
-        <v>94.86566424901332</v>
+        <v>94.86566424901321</v>
       </c>
       <c r="N13" t="n">
-        <v>92.60997078835715</v>
+        <v>92.60997078835703</v>
       </c>
       <c r="O13" t="n">
-        <v>85.54029738117845</v>
+        <v>85.54029738117833</v>
       </c>
       <c r="P13" t="n">
         <v>424.2115665691178</v>
@@ -35591,7 +35591,7 @@
         <v>220.5677709677748</v>
       </c>
       <c r="R13" t="n">
-        <v>6.007722421746784</v>
+        <v>6.007722421746767</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>51.60081105582553</v>
+        <v>51.6008110558255</v>
       </c>
       <c r="J14" t="n">
-        <v>114.50814005872</v>
+        <v>114.5081400587198</v>
       </c>
       <c r="K14" t="n">
-        <v>171.618018774879</v>
+        <v>171.6180187748789</v>
       </c>
       <c r="L14" t="n">
         <v>212.9073277935338</v>
       </c>
       <c r="M14" t="n">
-        <v>236.9004250205242</v>
+        <v>236.9004250205238</v>
       </c>
       <c r="N14" t="n">
-        <v>240.7337215691252</v>
+        <v>240.7337215691251</v>
       </c>
       <c r="O14" t="n">
         <v>227.3180268730748</v>
       </c>
       <c r="P14" t="n">
-        <v>194.0106767477459</v>
+        <v>194.0106767477457</v>
       </c>
       <c r="Q14" t="n">
         <v>145.6939384646735</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>51.18057382505156</v>
+        <v>51.18057382505153</v>
       </c>
       <c r="J15" t="n">
-        <v>68.20026375968141</v>
+        <v>68.20026375968133</v>
       </c>
       <c r="K15" t="n">
         <v>116.565113543484</v>
       </c>
       <c r="L15" t="n">
-        <v>156.7361801876899</v>
+        <v>156.7361801876897</v>
       </c>
       <c r="M15" t="n">
-        <v>182.9037295110159</v>
+        <v>182.9037295110157</v>
       </c>
       <c r="N15" t="n">
-        <v>187.7446469841394</v>
+        <v>187.7446469841392</v>
       </c>
       <c r="O15" t="n">
-        <v>171.7496730964874</v>
+        <v>171.7496730964873</v>
       </c>
       <c r="P15" t="n">
-        <v>137.8442543785807</v>
+        <v>137.8442543785806</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201042</v>
+        <v>419.3930899696118</v>
       </c>
       <c r="R15" t="n">
-        <v>158.2724279481729</v>
+        <v>163.1751954986662</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>116.988010690205</v>
+        <v>130.2408812037722</v>
       </c>
       <c r="K16" t="n">
-        <v>70.31161567606506</v>
+        <v>347.8454081721616</v>
       </c>
       <c r="L16" t="n">
-        <v>89.97466062334649</v>
+        <v>278.1508813567855</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201042</v>
+        <v>94.86566424901321</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201042</v>
+        <v>92.60997078835703</v>
       </c>
       <c r="O16" t="n">
-        <v>424.2958575201042</v>
+        <v>85.54029738117833</v>
       </c>
       <c r="P16" t="n">
-        <v>73.19450195261106</v>
+        <v>424.2115665691178</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.67607918562089</v>
+        <v>220.5677709677748</v>
       </c>
       <c r="R16" t="n">
-        <v>6.007722421746777</v>
+        <v>6.00772242174676</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>61.62807112434439</v>
+        <v>61.6280711243444</v>
       </c>
       <c r="J17" t="n">
         <v>136.5832626640102</v>
       </c>
       <c r="K17" t="n">
-        <v>204.7029051750051</v>
+        <v>204.702905175005</v>
       </c>
       <c r="L17" t="n">
         <v>253.9520549386682</v>
       </c>
       <c r="M17" t="n">
-        <v>668.4950729277174</v>
+        <v>282.5705924417371</v>
       </c>
       <c r="N17" t="n">
-        <v>544.187366935932</v>
+        <v>287.1428800459036</v>
       </c>
       <c r="O17" t="n">
-        <v>271.1408792139</v>
+        <v>306.1645493355543</v>
       </c>
       <c r="P17" t="n">
-        <v>231.4124673431184</v>
+        <v>668.495072927717</v>
       </c>
       <c r="Q17" t="n">
         <v>173.7811255660099</v>
       </c>
       <c r="R17" t="n">
-        <v>101.0871838856906</v>
+        <v>271.949875555445</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>29.64496709049034</v>
       </c>
       <c r="J18" t="n">
-        <v>81.34805555366273</v>
+        <v>320.3773710615271</v>
       </c>
       <c r="K18" t="n">
-        <v>139.036783868864</v>
+        <v>139.0367838688641</v>
       </c>
       <c r="L18" t="n">
         <v>186.9521141165254</v>
@@ -35977,13 +35977,13 @@
         <v>223.9384590444569</v>
       </c>
       <c r="O18" t="n">
-        <v>204.8599400965387</v>
+        <v>204.8599400965388</v>
       </c>
       <c r="P18" t="n">
-        <v>164.4181626988238</v>
+        <v>164.4181626988241</v>
       </c>
       <c r="Q18" t="n">
-        <v>348.9385030494741</v>
+        <v>109.9091875416091</v>
       </c>
       <c r="R18" t="n">
         <v>53.45912791502951</v>
@@ -36044,25 +36044,25 @@
         <v>138.4893832512364</v>
       </c>
       <c r="K19" t="n">
-        <v>159.314374440442</v>
+        <v>361.400230875851</v>
       </c>
       <c r="L19" t="n">
         <v>529.7543909299902</v>
       </c>
       <c r="M19" t="n">
-        <v>577.2791869860067</v>
+        <v>113.154068621448</v>
       </c>
       <c r="N19" t="n">
-        <v>557.1895815770097</v>
+        <v>298.3200871074971</v>
       </c>
       <c r="O19" t="n">
         <v>525.9392702608736</v>
       </c>
       <c r="P19" t="n">
-        <v>87.30509359970665</v>
+        <v>438.3221582162137</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.4455214331706</v>
+        <v>230.3372132153245</v>
       </c>
       <c r="R19" t="n">
         <v>11.25358729596023</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>61.62807112434439</v>
+        <v>61.6280711243444</v>
       </c>
       <c r="J20" t="n">
-        <v>576.2344621114021</v>
+        <v>136.5832626640102</v>
       </c>
       <c r="K20" t="n">
-        <v>204.7029051750051</v>
+        <v>204.702905175005</v>
       </c>
       <c r="L20" t="n">
-        <v>253.9520549386681</v>
+        <v>253.9520549386682</v>
       </c>
       <c r="M20" t="n">
         <v>282.5705924417371</v>
       </c>
       <c r="N20" t="n">
-        <v>287.1428800459034</v>
+        <v>287.1428800459036</v>
       </c>
       <c r="O20" t="n">
-        <v>271.1408792139</v>
+        <v>668.495072927717</v>
       </c>
       <c r="P20" t="n">
-        <v>263.867543601981</v>
+        <v>477.0272410053087</v>
       </c>
       <c r="Q20" t="n">
         <v>173.7811255660099</v>
       </c>
       <c r="R20" t="n">
-        <v>271.949875555445</v>
+        <v>101.0871838856906</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>29.64496709049035</v>
+        <v>55.97190967681114</v>
       </c>
       <c r="J21" t="n">
-        <v>320.3773710615287</v>
+        <v>175.6940869657724</v>
       </c>
       <c r="K21" t="n">
-        <v>139.0367838688639</v>
+        <v>139.036783868864</v>
       </c>
       <c r="L21" t="n">
-        <v>186.9521141165253</v>
+        <v>186.9521141165254</v>
       </c>
       <c r="M21" t="n">
-        <v>218.1642992124364</v>
+        <v>218.1642992124365</v>
       </c>
       <c r="N21" t="n">
-        <v>223.9384590444567</v>
+        <v>223.9384590444569</v>
       </c>
       <c r="O21" t="n">
-        <v>204.8599400965386</v>
+        <v>204.8599400965388</v>
       </c>
       <c r="P21" t="n">
-        <v>164.4181626988238</v>
+        <v>164.4181626988241</v>
       </c>
       <c r="Q21" t="n">
-        <v>109.9091875416088</v>
+        <v>109.9091875416091</v>
       </c>
       <c r="R21" t="n">
-        <v>53.45912791502951</v>
+        <v>171.8154694244636</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>138.4893832512365</v>
+        <v>138.4893832512364</v>
       </c>
       <c r="K22" t="n">
         <v>83.86643837975447</v>
       </c>
       <c r="L22" t="n">
-        <v>529.7543909299902</v>
+        <v>107.3201669219488</v>
       </c>
       <c r="M22" t="n">
-        <v>577.2791869860067</v>
+        <v>577.2791869860066</v>
       </c>
       <c r="N22" t="n">
         <v>557.1895815770097</v>
@@ -36296,10 +36296,10 @@
         <v>525.9392702608736</v>
       </c>
       <c r="P22" t="n">
-        <v>87.30509359970665</v>
+        <v>415.2955618862804</v>
       </c>
       <c r="Q22" t="n">
-        <v>135.893457493858</v>
+        <v>230.3372132153245</v>
       </c>
       <c r="R22" t="n">
         <v>11.25358729596023</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>61.62807112434439</v>
+        <v>61.6280711243444</v>
       </c>
       <c r="J23" t="n">
-        <v>136.5832626640102</v>
+        <v>551.4945136127463</v>
       </c>
       <c r="K23" t="n">
         <v>204.7029051750051</v>
       </c>
       <c r="L23" t="n">
-        <v>741.7113412833206</v>
+        <v>253.9520549386682</v>
       </c>
       <c r="M23" t="n">
         <v>282.5705924417371</v>
@@ -36372,13 +36372,13 @@
         <v>287.1428800459034</v>
       </c>
       <c r="O23" t="n">
-        <v>750.3118195337365</v>
+        <v>271.1408792139</v>
       </c>
       <c r="P23" t="n">
         <v>231.4124673431184</v>
       </c>
       <c r="Q23" t="n">
-        <v>173.7811255660099</v>
+        <v>725.8001012817622</v>
       </c>
       <c r="R23" t="n">
         <v>101.0871838856906</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>29.64496709049033</v>
+        <v>55.97190967681114</v>
       </c>
       <c r="J24" t="n">
-        <v>320.3773710615277</v>
+        <v>81.34805555366272</v>
       </c>
       <c r="K24" t="n">
-        <v>139.036783868864</v>
+        <v>139.0367838688641</v>
       </c>
       <c r="L24" t="n">
         <v>186.9521141165253</v>
@@ -36451,16 +36451,16 @@
         <v>223.9384590444569</v>
       </c>
       <c r="O24" t="n">
-        <v>204.8599400965386</v>
+        <v>204.8599400965388</v>
       </c>
       <c r="P24" t="n">
-        <v>164.4181626988238</v>
+        <v>164.4181626988241</v>
       </c>
       <c r="Q24" t="n">
-        <v>109.9091875416091</v>
+        <v>204.2552189537187</v>
       </c>
       <c r="R24" t="n">
-        <v>53.45912791502951</v>
+        <v>171.8154694244636</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>138.4893832512364</v>
+        <v>51.03515581215576</v>
       </c>
       <c r="K25" t="n">
-        <v>132.258569112415</v>
+        <v>219.7127965514952</v>
       </c>
       <c r="L25" t="n">
         <v>529.7543909299902</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>61.62807112434439</v>
+        <v>61.6280711243444</v>
       </c>
       <c r="J26" t="n">
-        <v>576.234462111402</v>
+        <v>576.2344621114021</v>
       </c>
       <c r="K26" t="n">
         <v>204.7029051750051</v>
       </c>
       <c r="L26" t="n">
-        <v>253.9520549386682</v>
+        <v>253.9520549386683</v>
       </c>
       <c r="M26" t="n">
         <v>282.5705924417371</v>
@@ -36612,13 +36612,13 @@
         <v>271.1408792139</v>
       </c>
       <c r="P26" t="n">
-        <v>231.4124673431186</v>
+        <v>231.4124673431184</v>
       </c>
       <c r="Q26" t="n">
-        <v>701.0601527831063</v>
+        <v>530.1974611133519</v>
       </c>
       <c r="R26" t="n">
-        <v>101.0871838856906</v>
+        <v>271.949875555445</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>29.64496709049033</v>
+        <v>55.97190967681114</v>
       </c>
       <c r="J27" t="n">
-        <v>320.3773710615277</v>
+        <v>175.6940869657723</v>
       </c>
       <c r="K27" t="n">
         <v>139.036783868864</v>
       </c>
       <c r="L27" t="n">
-        <v>186.9521141165253</v>
+        <v>186.9521141165254</v>
       </c>
       <c r="M27" t="n">
         <v>218.1642992124365</v>
@@ -36688,16 +36688,16 @@
         <v>223.9384590444569</v>
       </c>
       <c r="O27" t="n">
-        <v>204.8599400965386</v>
+        <v>204.8599400965388</v>
       </c>
       <c r="P27" t="n">
-        <v>164.4181626988238</v>
+        <v>164.4181626988241</v>
       </c>
       <c r="Q27" t="n">
         <v>109.9091875416091</v>
       </c>
       <c r="R27" t="n">
-        <v>53.45912791502951</v>
+        <v>171.8154694244636</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>90.4730943221534</v>
+        <v>51.03515581215576</v>
       </c>
       <c r="K28" t="n">
         <v>361.400230875851</v>
@@ -36761,16 +36761,16 @@
         <v>529.7543909299902</v>
       </c>
       <c r="M28" t="n">
-        <v>577.2791869860066</v>
+        <v>265.700060879497</v>
       </c>
       <c r="N28" t="n">
         <v>557.1895815770097</v>
       </c>
       <c r="O28" t="n">
-        <v>525.9392702608734</v>
+        <v>525.9392702608736</v>
       </c>
       <c r="P28" t="n">
-        <v>87.30509359970665</v>
+        <v>438.3221582162137</v>
       </c>
       <c r="Q28" t="n">
         <v>230.3372132153245</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>61.62807112434439</v>
+        <v>61.6280711243444</v>
       </c>
       <c r="J29" t="n">
-        <v>576.234462111402</v>
+        <v>576.2344621114021</v>
       </c>
       <c r="K29" t="n">
         <v>204.7029051750051</v>
       </c>
       <c r="L29" t="n">
-        <v>253.9520549386682</v>
+        <v>610.3683904860103</v>
       </c>
       <c r="M29" t="n">
         <v>282.5705924417371</v>
@@ -36849,13 +36849,13 @@
         <v>271.1408792139</v>
       </c>
       <c r="P29" t="n">
-        <v>231.4124673431186</v>
+        <v>231.4124673431184</v>
       </c>
       <c r="Q29" t="n">
-        <v>701.0601527831063</v>
+        <v>173.7811255660099</v>
       </c>
       <c r="R29" t="n">
-        <v>101.0871838856906</v>
+        <v>271.949875555445</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>29.64496709049033</v>
+        <v>55.97190967681114</v>
       </c>
       <c r="J30" t="n">
-        <v>202.0210295520936</v>
+        <v>81.34805555366272</v>
       </c>
       <c r="K30" t="n">
-        <v>139.036783868864</v>
+        <v>139.0367838688641</v>
       </c>
       <c r="L30" t="n">
         <v>186.9521141165253</v>
@@ -36925,13 +36925,13 @@
         <v>223.9384590444569</v>
       </c>
       <c r="O30" t="n">
-        <v>204.8599400965386</v>
+        <v>204.8599400965388</v>
       </c>
       <c r="P30" t="n">
-        <v>164.4181626988238</v>
+        <v>164.4181626988241</v>
       </c>
       <c r="Q30" t="n">
-        <v>109.9091875416091</v>
+        <v>204.2552189537187</v>
       </c>
       <c r="R30" t="n">
         <v>171.8154694244636</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>138.4893832512364</v>
+        <v>51.03515581215576</v>
       </c>
       <c r="K31" t="n">
         <v>361.400230875851</v>
@@ -36998,19 +36998,19 @@
         <v>529.7543909299902</v>
       </c>
       <c r="M31" t="n">
-        <v>178.2458334404168</v>
+        <v>577.2791869860066</v>
       </c>
       <c r="N31" t="n">
-        <v>557.1895815770097</v>
+        <v>557.1895815770094</v>
       </c>
       <c r="O31" t="n">
-        <v>525.9392702608736</v>
+        <v>525.9392702608739</v>
       </c>
       <c r="P31" t="n">
-        <v>438.3221582162137</v>
+        <v>296.6347238918584</v>
       </c>
       <c r="Q31" t="n">
-        <v>230.3372132153245</v>
+        <v>60.4455214331706</v>
       </c>
       <c r="R31" t="n">
         <v>11.25358729596023</v>
@@ -37065,19 +37065,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>61.62807112434439</v>
+        <v>61.6280711243444</v>
       </c>
       <c r="J32" t="n">
-        <v>136.5832626640102</v>
+        <v>576.2344621114021</v>
       </c>
       <c r="K32" t="n">
         <v>204.7029051750051</v>
       </c>
       <c r="L32" t="n">
-        <v>253.9520549386682</v>
+        <v>253.9520549386683</v>
       </c>
       <c r="M32" t="n">
-        <v>282.5705924417369</v>
+        <v>282.5705924417371</v>
       </c>
       <c r="N32" t="n">
         <v>287.1428800459034</v>
@@ -37086,13 +37086,13 @@
         <v>271.1408792139</v>
       </c>
       <c r="P32" t="n">
-        <v>475.4610266221002</v>
+        <v>750.311819533737</v>
       </c>
       <c r="Q32" t="n">
-        <v>725.8001012817622</v>
+        <v>173.7811255660099</v>
       </c>
       <c r="R32" t="n">
-        <v>271.949875555445</v>
+        <v>109.4668589121684</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>55.97190967681113</v>
+        <v>55.97190967681114</v>
       </c>
       <c r="J33" t="n">
-        <v>175.6940869657728</v>
+        <v>81.34805555366272</v>
       </c>
       <c r="K33" t="n">
-        <v>139.036783868864</v>
+        <v>139.0367838688641</v>
       </c>
       <c r="L33" t="n">
         <v>186.9521141165253</v>
@@ -37162,13 +37162,13 @@
         <v>223.9384590444569</v>
       </c>
       <c r="O33" t="n">
-        <v>204.8599400965386</v>
+        <v>204.8599400965388</v>
       </c>
       <c r="P33" t="n">
-        <v>164.4181626988238</v>
+        <v>164.4181626988241</v>
       </c>
       <c r="Q33" t="n">
-        <v>109.9091875416091</v>
+        <v>204.2552189537187</v>
       </c>
       <c r="R33" t="n">
         <v>171.8154694244636</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>51.03515581215576</v>
+        <v>138.4893832512364</v>
       </c>
       <c r="K34" t="n">
-        <v>219.7127965514952</v>
+        <v>361.400230875851</v>
       </c>
       <c r="L34" t="n">
         <v>529.7543909299902</v>
       </c>
       <c r="M34" t="n">
-        <v>577.2791869860067</v>
+        <v>178.2458334404164</v>
       </c>
       <c r="N34" t="n">
         <v>557.1895815770097</v>
@@ -37247,7 +37247,7 @@
         <v>438.3221582162137</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.4455214331706</v>
+        <v>230.3372132153245</v>
       </c>
       <c r="R34" t="n">
         <v>11.25358729596023</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>61.6280711243444</v>
+        <v>61.62807112434442</v>
       </c>
       <c r="J35" t="n">
-        <v>576.2344621114021</v>
+        <v>136.5832626640102</v>
       </c>
       <c r="K35" t="n">
         <v>204.7029051750051</v>
@@ -37317,19 +37317,19 @@
         <v>282.5705924417371</v>
       </c>
       <c r="N35" t="n">
-        <v>287.1428800459034</v>
+        <v>287.1428800459036</v>
       </c>
       <c r="O35" t="n">
         <v>271.1408792139</v>
       </c>
       <c r="P35" t="n">
-        <v>231.4124673431184</v>
+        <v>475.4610266220998</v>
       </c>
       <c r="Q35" t="n">
-        <v>701.0601527831063</v>
+        <v>725.8001012817622</v>
       </c>
       <c r="R35" t="n">
-        <v>101.0871838856906</v>
+        <v>271.949875555445</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>29.64496709049033</v>
+        <v>55.97190967681116</v>
       </c>
       <c r="J36" t="n">
-        <v>320.3773710615272</v>
+        <v>81.34805555366273</v>
       </c>
       <c r="K36" t="n">
-        <v>139.0367838688641</v>
+        <v>139.036783868864</v>
       </c>
       <c r="L36" t="n">
-        <v>186.9521141165253</v>
+        <v>186.9521141165254</v>
       </c>
       <c r="M36" t="n">
         <v>218.1642992124365</v>
@@ -37399,16 +37399,16 @@
         <v>223.9384590444569</v>
       </c>
       <c r="O36" t="n">
-        <v>204.8599400965388</v>
+        <v>204.8599400965387</v>
       </c>
       <c r="P36" t="n">
         <v>164.4181626988241</v>
       </c>
       <c r="Q36" t="n">
-        <v>109.9091875416091</v>
+        <v>204.2552189537187</v>
       </c>
       <c r="R36" t="n">
-        <v>53.45912791502951</v>
+        <v>171.8154694244636</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>138.4893832512364</v>
       </c>
       <c r="K37" t="n">
-        <v>361.400230875851</v>
+        <v>313.3839419467673</v>
       </c>
       <c r="L37" t="n">
         <v>529.7543909299902</v>
       </c>
       <c r="M37" t="n">
-        <v>178.2458334404164</v>
+        <v>577.2791869860066</v>
       </c>
       <c r="N37" t="n">
-        <v>557.1895815770097</v>
+        <v>557.1895815770099</v>
       </c>
       <c r="O37" t="n">
-        <v>525.9392702608736</v>
+        <v>525.9392702608739</v>
       </c>
       <c r="P37" t="n">
-        <v>438.3221582162137</v>
+        <v>87.30509359970665</v>
       </c>
       <c r="Q37" t="n">
         <v>230.3372132153245</v>
@@ -37545,10 +37545,10 @@
         <v>576.2344621114021</v>
       </c>
       <c r="K38" t="n">
-        <v>561.1192407223476</v>
+        <v>204.7029051750051</v>
       </c>
       <c r="L38" t="n">
-        <v>253.9520549386682</v>
+        <v>253.9520549386683</v>
       </c>
       <c r="M38" t="n">
         <v>282.5705924417371</v>
@@ -37563,10 +37563,10 @@
         <v>231.4124673431184</v>
       </c>
       <c r="Q38" t="n">
-        <v>173.7811255660099</v>
+        <v>701.0601527831063</v>
       </c>
       <c r="R38" t="n">
-        <v>271.949875555445</v>
+        <v>101.0871838856906</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>29.64496709049034</v>
+        <v>29.64496709049033</v>
       </c>
       <c r="J39" t="n">
-        <v>320.3773710615272</v>
+        <v>81.34805555366273</v>
       </c>
       <c r="K39" t="n">
         <v>139.0367838688641</v>
       </c>
       <c r="L39" t="n">
-        <v>186.9521141165253</v>
+        <v>186.9521141165254</v>
       </c>
       <c r="M39" t="n">
-        <v>218.1642992124365</v>
+        <v>218.1642992124364</v>
       </c>
       <c r="N39" t="n">
         <v>223.9384590444569</v>
       </c>
       <c r="O39" t="n">
-        <v>204.8599400965388</v>
+        <v>204.8599400965387</v>
       </c>
       <c r="P39" t="n">
         <v>164.4181626988241</v>
       </c>
       <c r="Q39" t="n">
-        <v>109.9091875416091</v>
+        <v>348.9385030494736</v>
       </c>
       <c r="R39" t="n">
         <v>53.45912791502951</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>138.4893832512364</v>
+        <v>51.03515581215576</v>
       </c>
       <c r="K40" t="n">
         <v>361.400230875851</v>
       </c>
       <c r="L40" t="n">
-        <v>130.7210373844003</v>
+        <v>529.7543909299902</v>
       </c>
       <c r="M40" t="n">
-        <v>577.2791869860067</v>
+        <v>577.2791869860066</v>
       </c>
       <c r="N40" t="n">
-        <v>557.1895815770097</v>
+        <v>557.1895815770094</v>
       </c>
       <c r="O40" t="n">
-        <v>525.9392702608736</v>
+        <v>525.9392702608739</v>
       </c>
       <c r="P40" t="n">
-        <v>438.3221582162137</v>
+        <v>296.6347238918579</v>
       </c>
       <c r="Q40" t="n">
-        <v>230.3372132153245</v>
+        <v>60.4455214331706</v>
       </c>
       <c r="R40" t="n">
         <v>11.25358729596023</v>
@@ -37782,13 +37782,13 @@
         <v>136.5832626640102</v>
       </c>
       <c r="K41" t="n">
-        <v>204.7029051750051</v>
+        <v>204.702905175005</v>
       </c>
       <c r="L41" t="n">
         <v>253.9520549386682</v>
       </c>
       <c r="M41" t="n">
-        <v>282.5705924417373</v>
+        <v>282.5705924417371</v>
       </c>
       <c r="N41" t="n">
         <v>287.1428800459034</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>29.64496709049033</v>
+        <v>29.64496709049034</v>
       </c>
       <c r="J42" t="n">
-        <v>81.3480555536627</v>
+        <v>81.34805555366272</v>
       </c>
       <c r="K42" t="n">
-        <v>139.0367838688641</v>
+        <v>378.0660993767285</v>
       </c>
       <c r="L42" t="n">
-        <v>186.9521141165254</v>
+        <v>186.9521141165253</v>
       </c>
       <c r="M42" t="n">
-        <v>218.1642992124364</v>
+        <v>218.1642992124365</v>
       </c>
       <c r="N42" t="n">
         <v>223.9384590444569</v>
       </c>
       <c r="O42" t="n">
-        <v>204.8599400965387</v>
+        <v>204.8599400965388</v>
       </c>
       <c r="P42" t="n">
         <v>164.4181626988241</v>
       </c>
       <c r="Q42" t="n">
-        <v>348.9385030494736</v>
+        <v>109.9091875416091</v>
       </c>
       <c r="R42" t="n">
         <v>53.45912791502951</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>51.03515581215576</v>
+        <v>138.4893832512365</v>
       </c>
       <c r="K43" t="n">
-        <v>83.86643837975447</v>
+        <v>86.13908673036445</v>
       </c>
       <c r="L43" t="n">
-        <v>506.1126041261233</v>
+        <v>506.1126041261234</v>
       </c>
       <c r="M43" t="n">
-        <v>506.1126041261233</v>
+        <v>506.1126041261234</v>
       </c>
       <c r="N43" t="n">
-        <v>506.1126041261234</v>
+        <v>506.1126041261232</v>
       </c>
       <c r="O43" t="n">
         <v>102.0309377095793</v>
       </c>
       <c r="P43" t="n">
-        <v>177.0319693893973</v>
+        <v>87.30509359970688</v>
       </c>
       <c r="Q43" t="n">
         <v>60.44552143317037</v>
@@ -38016,7 +38016,7 @@
         <v>61.62807112434439</v>
       </c>
       <c r="J44" t="n">
-        <v>136.5832626640102</v>
+        <v>136.5832626640104</v>
       </c>
       <c r="K44" t="n">
         <v>204.702905175005</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>55.97190967681113</v>
+        <v>29.64496709049033</v>
       </c>
       <c r="J45" t="n">
-        <v>175.6940869657726</v>
+        <v>81.3480555536627</v>
       </c>
       <c r="K45" t="n">
-        <v>139.036783868864</v>
+        <v>378.0660993767287</v>
       </c>
       <c r="L45" t="n">
         <v>186.9521141165253</v>
@@ -38119,7 +38119,7 @@
         <v>109.9091875416091</v>
       </c>
       <c r="R45" t="n">
-        <v>171.8154694244636</v>
+        <v>53.45912791502951</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>138.4893832512364</v>
+        <v>51.03515581215576</v>
       </c>
       <c r="K46" t="n">
-        <v>361.400230875851</v>
+        <v>83.86643837975447</v>
       </c>
       <c r="L46" t="n">
-        <v>107.3201669219487</v>
+        <v>191.7578134992696</v>
       </c>
       <c r="M46" t="n">
-        <v>113.1540686214481</v>
+        <v>506.1126041261234</v>
       </c>
       <c r="N46" t="n">
-        <v>110.4635177814091</v>
+        <v>506.1126041261234</v>
       </c>
       <c r="O46" t="n">
-        <v>493.261096218996</v>
+        <v>506.1126041261234</v>
       </c>
       <c r="P46" t="n">
-        <v>438.3221582162137</v>
+        <v>87.30509359970688</v>
       </c>
       <c r="Q46" t="n">
-        <v>230.3372132153243</v>
+        <v>60.44552143317037</v>
       </c>
       <c r="R46" t="n">
         <v>11.25358729596023</v>
